--- a/jobkorea_jobCode.xlsx
+++ b/jobkorea_jobCode.xlsx
@@ -5108,7 +5108,7 @@
   <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5138,7 +5138,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9">
+      <c r="A2" s="3">
         <v>10026</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -5158,7 +5158,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="9"/>
+      <c r="A3" s="3">
+        <v>10026</v>
+      </c>
       <c r="B3" s="9"/>
       <c r="C3" s="2">
         <v>1000186</v>
@@ -5174,7 +5176,9 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="9"/>
+      <c r="A4" s="3">
+        <v>10026</v>
+      </c>
       <c r="B4" s="9"/>
       <c r="C4" s="1">
         <v>1000187</v>
@@ -5190,7 +5194,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
+      <c r="A5" s="3">
+        <v>10026</v>
+      </c>
       <c r="B5" s="9"/>
       <c r="C5" s="2">
         <v>1000188</v>
@@ -5206,7 +5212,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9"/>
+      <c r="A6" s="3">
+        <v>10026</v>
+      </c>
       <c r="B6" s="9"/>
       <c r="C6" s="1">
         <v>1000189</v>
@@ -5222,7 +5230,9 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="9"/>
+      <c r="A7" s="3">
+        <v>10026</v>
+      </c>
       <c r="B7" s="9"/>
       <c r="C7" s="2">
         <v>1000190</v>
@@ -5238,7 +5248,9 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="9"/>
+      <c r="A8" s="3">
+        <v>10026</v>
+      </c>
       <c r="B8" s="9"/>
       <c r="C8" s="2">
         <v>1000414</v>
@@ -5254,7 +5266,9 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="9"/>
+      <c r="A9" s="3">
+        <v>10026</v>
+      </c>
       <c r="B9" s="9"/>
       <c r="C9" s="2">
         <v>1000415</v>
@@ -5270,7 +5284,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="9">
+      <c r="A10" s="3">
         <v>10028</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -5290,7 +5304,9 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="9"/>
+      <c r="A11" s="3">
+        <v>10028</v>
+      </c>
       <c r="B11" s="9"/>
       <c r="C11" s="2">
         <v>1000202</v>
@@ -5306,7 +5322,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="9"/>
+      <c r="A12" s="3">
+        <v>10028</v>
+      </c>
       <c r="B12" s="9"/>
       <c r="C12" s="2">
         <v>1000203</v>
@@ -5322,7 +5340,9 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="9"/>
+      <c r="A13" s="3">
+        <v>10028</v>
+      </c>
       <c r="B13" s="9"/>
       <c r="C13" s="2">
         <v>1000204</v>
@@ -5338,7 +5358,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="9"/>
+      <c r="A14" s="3">
+        <v>10028</v>
+      </c>
       <c r="B14" s="9"/>
       <c r="C14" s="2">
         <v>1000205</v>
@@ -5354,7 +5376,9 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
+      <c r="A15" s="3">
+        <v>10028</v>
+      </c>
       <c r="B15" s="9"/>
       <c r="C15" s="2">
         <v>1000206</v>
@@ -5370,7 +5394,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="9">
+      <c r="A16" s="3">
         <v>10030</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -5390,7 +5414,9 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="9"/>
+      <c r="A17" s="3">
+        <v>10030</v>
+      </c>
       <c r="B17" s="9"/>
       <c r="C17" s="2">
         <v>1000217</v>
@@ -5406,7 +5432,9 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9"/>
+      <c r="A18" s="3">
+        <v>10030</v>
+      </c>
       <c r="B18" s="9"/>
       <c r="C18" s="2">
         <v>1000218</v>
@@ -5422,7 +5450,9 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9"/>
+      <c r="A19" s="3">
+        <v>10030</v>
+      </c>
       <c r="B19" s="9"/>
       <c r="C19" s="2">
         <v>1000219</v>
@@ -5438,7 +5468,9 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="9"/>
+      <c r="A20" s="3">
+        <v>10030</v>
+      </c>
       <c r="B20" s="9"/>
       <c r="C20" s="2">
         <v>1000220</v>
@@ -5454,7 +5486,9 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9"/>
+      <c r="A21" s="3">
+        <v>10030</v>
+      </c>
       <c r="B21" s="9"/>
       <c r="C21" s="2">
         <v>1000221</v>
@@ -5470,7 +5504,9 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9"/>
+      <c r="A22" s="3">
+        <v>10030</v>
+      </c>
       <c r="B22" s="9"/>
       <c r="C22" s="2">
         <v>1000222</v>
@@ -5486,7 +5522,9 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="9"/>
+      <c r="A23" s="3">
+        <v>10030</v>
+      </c>
       <c r="B23" s="9"/>
       <c r="C23" s="2">
         <v>1000223</v>
@@ -5502,7 +5540,9 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="9"/>
+      <c r="A24" s="3">
+        <v>10030</v>
+      </c>
       <c r="B24" s="9"/>
       <c r="C24" s="2">
         <v>1000224</v>
@@ -5518,7 +5558,9 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9"/>
+      <c r="A25" s="3">
+        <v>10030</v>
+      </c>
       <c r="B25" s="9"/>
       <c r="C25" s="2">
         <v>1000225</v>
@@ -5534,7 +5576,9 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="9"/>
+      <c r="A26" s="3">
+        <v>10030</v>
+      </c>
       <c r="B26" s="9"/>
       <c r="C26" s="2">
         <v>1000226</v>
@@ -5550,7 +5594,9 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="9"/>
+      <c r="A27" s="3">
+        <v>10030</v>
+      </c>
       <c r="B27" s="9"/>
       <c r="C27" s="2">
         <v>1000227</v>
@@ -5566,7 +5612,9 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="9"/>
+      <c r="A28" s="3">
+        <v>10030</v>
+      </c>
       <c r="B28" s="9"/>
       <c r="C28" s="2">
         <v>1000228</v>
@@ -5582,7 +5630,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="9">
+      <c r="A29" s="3">
         <v>10032</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -5602,7 +5650,9 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="9"/>
+      <c r="A30" s="3">
+        <v>10032</v>
+      </c>
       <c r="B30" s="9"/>
       <c r="C30" s="2">
         <v>1000249</v>
@@ -5618,7 +5668,9 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="9"/>
+      <c r="A31" s="3">
+        <v>10032</v>
+      </c>
       <c r="B31" s="9"/>
       <c r="C31" s="2">
         <v>1000250</v>
@@ -5634,7 +5686,9 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9"/>
+      <c r="A32" s="3">
+        <v>10032</v>
+      </c>
       <c r="B32" s="9"/>
       <c r="C32" s="2">
         <v>1000251</v>
@@ -5650,7 +5704,9 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="9"/>
+      <c r="A33" s="3">
+        <v>10032</v>
+      </c>
       <c r="B33" s="9"/>
       <c r="C33" s="2">
         <v>1000252</v>
@@ -5666,7 +5722,9 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="9"/>
+      <c r="A34" s="3">
+        <v>10032</v>
+      </c>
       <c r="B34" s="9"/>
       <c r="C34" s="2">
         <v>1000253</v>
@@ -5682,7 +5740,9 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="9"/>
+      <c r="A35" s="3">
+        <v>10032</v>
+      </c>
       <c r="B35" s="9"/>
       <c r="C35" s="2">
         <v>1000254</v>
@@ -5698,7 +5758,9 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="9"/>
+      <c r="A36" s="3">
+        <v>10032</v>
+      </c>
       <c r="B36" s="9"/>
       <c r="C36" s="2">
         <v>1000255</v>
@@ -5714,7 +5776,9 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="9"/>
+      <c r="A37" s="3">
+        <v>10032</v>
+      </c>
       <c r="B37" s="9"/>
       <c r="C37" s="2">
         <v>1000256</v>
@@ -5730,7 +5794,9 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="9"/>
+      <c r="A38" s="3">
+        <v>10032</v>
+      </c>
       <c r="B38" s="9"/>
       <c r="C38" s="2">
         <v>1000257</v>
@@ -5746,7 +5812,9 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9"/>
+      <c r="A39" s="3">
+        <v>10032</v>
+      </c>
       <c r="B39" s="9"/>
       <c r="C39" s="2">
         <v>1000258</v>
@@ -5762,7 +5830,9 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="9"/>
+      <c r="A40" s="3">
+        <v>10032</v>
+      </c>
       <c r="B40" s="9"/>
       <c r="C40" s="2">
         <v>1000259</v>
@@ -5778,7 +5848,9 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="9"/>
+      <c r="A41" s="3">
+        <v>10032</v>
+      </c>
       <c r="B41" s="9"/>
       <c r="C41" s="2">
         <v>1000260</v>
@@ -5794,7 +5866,9 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="9"/>
+      <c r="A42" s="3">
+        <v>10032</v>
+      </c>
       <c r="B42" s="9"/>
       <c r="C42" s="2">
         <v>1000261</v>
@@ -5810,7 +5884,9 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="9"/>
+      <c r="A43" s="3">
+        <v>10032</v>
+      </c>
       <c r="B43" s="9"/>
       <c r="C43" s="2">
         <v>1000262</v>
@@ -5826,7 +5902,9 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="9"/>
+      <c r="A44" s="3">
+        <v>10032</v>
+      </c>
       <c r="B44" s="9"/>
       <c r="C44" s="2">
         <v>1000263</v>
@@ -5842,7 +5920,9 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="9"/>
+      <c r="A45" s="3">
+        <v>10032</v>
+      </c>
       <c r="B45" s="9"/>
       <c r="C45" s="2">
         <v>1000264</v>
@@ -5858,7 +5938,7 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="9">
+      <c r="A46" s="3">
         <v>10034</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -5878,7 +5958,9 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="9"/>
+      <c r="A47" s="3">
+        <v>10034</v>
+      </c>
       <c r="B47" s="9"/>
       <c r="C47" s="2">
         <v>1000271</v>
@@ -5894,7 +5976,9 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="9"/>
+      <c r="A48" s="3">
+        <v>10034</v>
+      </c>
       <c r="B48" s="9"/>
       <c r="C48" s="2">
         <v>1000272</v>
@@ -5910,7 +5994,9 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="9"/>
+      <c r="A49" s="3">
+        <v>10034</v>
+      </c>
       <c r="B49" s="9"/>
       <c r="C49" s="2">
         <v>1000273</v>
@@ -5926,7 +6012,9 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="9"/>
+      <c r="A50" s="3">
+        <v>10034</v>
+      </c>
       <c r="B50" s="9"/>
       <c r="C50" s="2">
         <v>1000274</v>
@@ -5942,7 +6030,9 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="9"/>
+      <c r="A51" s="3">
+        <v>10034</v>
+      </c>
       <c r="B51" s="9"/>
       <c r="C51" s="2">
         <v>1000275</v>
@@ -5958,7 +6048,9 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="9"/>
+      <c r="A52" s="3">
+        <v>10034</v>
+      </c>
       <c r="B52" s="9"/>
       <c r="C52" s="2">
         <v>1000276</v>
@@ -5974,7 +6066,7 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="9">
+      <c r="A53" s="3">
         <v>10036</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -5994,7 +6086,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="9"/>
+      <c r="A54" s="3">
+        <v>10036</v>
+      </c>
       <c r="B54" s="9"/>
       <c r="C54" s="2">
         <v>1000287</v>
@@ -6010,7 +6104,9 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="9"/>
+      <c r="A55" s="3">
+        <v>10036</v>
+      </c>
       <c r="B55" s="9"/>
       <c r="C55" s="2">
         <v>1000288</v>
@@ -6026,7 +6122,7 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="9">
+      <c r="A56" s="3">
         <v>10038</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -6046,7 +6142,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="9"/>
+      <c r="A57" s="3">
+        <v>10038</v>
+      </c>
       <c r="B57" s="9"/>
       <c r="C57" s="2">
         <v>1000298</v>
@@ -6062,7 +6160,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="9"/>
+      <c r="A58" s="3">
+        <v>10038</v>
+      </c>
       <c r="B58" s="9"/>
       <c r="C58" s="2">
         <v>1000299</v>
@@ -6078,7 +6178,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="9"/>
+      <c r="A59" s="3">
+        <v>10038</v>
+      </c>
       <c r="B59" s="9"/>
       <c r="C59" s="2">
         <v>1000300</v>
@@ -6094,7 +6196,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="9"/>
+      <c r="A60" s="3">
+        <v>10038</v>
+      </c>
       <c r="B60" s="9"/>
       <c r="C60" s="2">
         <v>1000301</v>
@@ -6110,7 +6214,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="9"/>
+      <c r="A61" s="3">
+        <v>10038</v>
+      </c>
       <c r="B61" s="9"/>
       <c r="C61" s="2">
         <v>1000302</v>
@@ -6126,7 +6232,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="9"/>
+      <c r="A62" s="3">
+        <v>10038</v>
+      </c>
       <c r="B62" s="9"/>
       <c r="C62" s="2">
         <v>1000303</v>
@@ -6142,7 +6250,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="9"/>
+      <c r="A63" s="3">
+        <v>10038</v>
+      </c>
       <c r="B63" s="9"/>
       <c r="C63" s="2">
         <v>1000304</v>
@@ -6158,7 +6268,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="9"/>
+      <c r="A64" s="3">
+        <v>10038</v>
+      </c>
       <c r="B64" s="9"/>
       <c r="C64" s="2">
         <v>1000305</v>
@@ -6174,7 +6286,9 @@
       </c>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="9"/>
+      <c r="A65" s="3">
+        <v>10038</v>
+      </c>
       <c r="B65" s="9"/>
       <c r="C65" s="2">
         <v>1000306</v>
@@ -6190,7 +6304,9 @@
       </c>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="9"/>
+      <c r="A66" s="3">
+        <v>10038</v>
+      </c>
       <c r="B66" s="9"/>
       <c r="C66" s="2">
         <v>1000307</v>
@@ -6206,7 +6322,9 @@
       </c>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="9"/>
+      <c r="A67" s="3">
+        <v>10038</v>
+      </c>
       <c r="B67" s="9"/>
       <c r="C67" s="2">
         <v>1000308</v>
@@ -6222,7 +6340,7 @@
       </c>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="9">
+      <c r="A68" s="3">
         <v>10040</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -6242,7 +6360,9 @@
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="9"/>
+      <c r="A69" s="3">
+        <v>10040</v>
+      </c>
       <c r="B69" s="9"/>
       <c r="C69" s="2">
         <v>1000327</v>
@@ -6258,7 +6378,9 @@
       </c>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="9"/>
+      <c r="A70" s="3">
+        <v>10040</v>
+      </c>
       <c r="B70" s="9"/>
       <c r="C70" s="2">
         <v>1000328</v>
@@ -6274,7 +6396,9 @@
       </c>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="9"/>
+      <c r="A71" s="3">
+        <v>10040</v>
+      </c>
       <c r="B71" s="9"/>
       <c r="C71" s="2">
         <v>1000329</v>
@@ -6290,7 +6414,9 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="9"/>
+      <c r="A72" s="3">
+        <v>10040</v>
+      </c>
       <c r="B72" s="9"/>
       <c r="C72" s="2">
         <v>1000330</v>
@@ -6306,7 +6432,9 @@
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="9"/>
+      <c r="A73" s="3">
+        <v>10040</v>
+      </c>
       <c r="B73" s="9"/>
       <c r="C73" s="2">
         <v>1000331</v>
@@ -6322,7 +6450,9 @@
       </c>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="9"/>
+      <c r="A74" s="3">
+        <v>10040</v>
+      </c>
       <c r="B74" s="9"/>
       <c r="C74" s="2">
         <v>1000332</v>
@@ -6338,7 +6468,9 @@
       </c>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="9"/>
+      <c r="A75" s="3">
+        <v>10040</v>
+      </c>
       <c r="B75" s="9"/>
       <c r="C75" s="2">
         <v>1000333</v>
@@ -6354,7 +6486,9 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="9"/>
+      <c r="A76" s="3">
+        <v>10040</v>
+      </c>
       <c r="B76" s="9"/>
       <c r="C76" s="2">
         <v>1000334</v>
@@ -6370,7 +6504,9 @@
       </c>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="9"/>
+      <c r="A77" s="3">
+        <v>10040</v>
+      </c>
       <c r="B77" s="9"/>
       <c r="C77" s="2">
         <v>1000335</v>
@@ -6386,7 +6522,9 @@
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="9"/>
+      <c r="A78" s="3">
+        <v>10040</v>
+      </c>
       <c r="B78" s="9"/>
       <c r="C78" s="2">
         <v>1000336</v>
@@ -6402,7 +6540,9 @@
       </c>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="9"/>
+      <c r="A79" s="3">
+        <v>10040</v>
+      </c>
       <c r="B79" s="9"/>
       <c r="C79" s="2">
         <v>1000337</v>
@@ -6418,7 +6558,9 @@
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="9"/>
+      <c r="A80" s="3">
+        <v>10040</v>
+      </c>
       <c r="B80" s="9"/>
       <c r="C80" s="2">
         <v>1000424</v>
@@ -6434,7 +6576,7 @@
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="9">
+      <c r="A81" s="3">
         <v>10042</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -6454,7 +6596,9 @@
       </c>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="9"/>
+      <c r="A82" s="3">
+        <v>10042</v>
+      </c>
       <c r="B82" s="9"/>
       <c r="C82" s="2">
         <v>1000345</v>
@@ -6470,7 +6614,9 @@
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="9"/>
+      <c r="A83" s="3">
+        <v>10042</v>
+      </c>
       <c r="B83" s="9"/>
       <c r="C83" s="2">
         <v>1000346</v>
@@ -6486,7 +6632,9 @@
       </c>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="9"/>
+      <c r="A84" s="3">
+        <v>10042</v>
+      </c>
       <c r="B84" s="9"/>
       <c r="C84" s="2">
         <v>1000347</v>
@@ -6502,7 +6650,9 @@
       </c>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="9"/>
+      <c r="A85" s="3">
+        <v>10042</v>
+      </c>
       <c r="B85" s="9"/>
       <c r="C85" s="2">
         <v>1000348</v>
@@ -6518,7 +6668,9 @@
       </c>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="9"/>
+      <c r="A86" s="3">
+        <v>10042</v>
+      </c>
       <c r="B86" s="9"/>
       <c r="C86" s="2">
         <v>1000349</v>
@@ -6534,7 +6686,9 @@
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="9"/>
+      <c r="A87" s="3">
+        <v>10042</v>
+      </c>
       <c r="B87" s="9"/>
       <c r="C87" s="2">
         <v>1000350</v>
@@ -6550,7 +6704,9 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="9"/>
+      <c r="A88" s="3">
+        <v>10042</v>
+      </c>
       <c r="B88" s="9"/>
       <c r="C88" s="2">
         <v>1000351</v>
@@ -6566,7 +6722,9 @@
       </c>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="9"/>
+      <c r="A89" s="3">
+        <v>10042</v>
+      </c>
       <c r="B89" s="9"/>
       <c r="C89" s="2">
         <v>1000352</v>
@@ -6582,7 +6740,9 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="9"/>
+      <c r="A90" s="3">
+        <v>10042</v>
+      </c>
       <c r="B90" s="9"/>
       <c r="C90" s="2">
         <v>1000353</v>
@@ -6598,7 +6758,9 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="9"/>
+      <c r="A91" s="3">
+        <v>10042</v>
+      </c>
       <c r="B91" s="9"/>
       <c r="C91" s="2">
         <v>1000425</v>
@@ -6614,7 +6776,7 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="9">
+      <c r="A92" s="3">
         <v>10044</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -6634,7 +6796,9 @@
       </c>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="9"/>
+      <c r="A93" s="3">
+        <v>10044</v>
+      </c>
       <c r="B93" s="9"/>
       <c r="C93" s="2">
         <v>1000373</v>
@@ -6650,7 +6814,9 @@
       </c>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="9"/>
+      <c r="A94" s="3">
+        <v>10044</v>
+      </c>
       <c r="B94" s="9"/>
       <c r="C94" s="2">
         <v>1000374</v>
@@ -6666,7 +6832,9 @@
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="9"/>
+      <c r="A95" s="3">
+        <v>10044</v>
+      </c>
       <c r="B95" s="9"/>
       <c r="C95" s="2">
         <v>1000375</v>
@@ -6682,7 +6850,9 @@
       </c>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="9"/>
+      <c r="A96" s="3">
+        <v>10044</v>
+      </c>
       <c r="B96" s="9"/>
       <c r="C96" s="2">
         <v>1000376</v>
@@ -6698,7 +6868,9 @@
       </c>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="9"/>
+      <c r="A97" s="3">
+        <v>10044</v>
+      </c>
       <c r="B97" s="9"/>
       <c r="C97" s="2">
         <v>1000377</v>
@@ -6714,7 +6886,9 @@
       </c>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="9"/>
+      <c r="A98" s="3">
+        <v>10044</v>
+      </c>
       <c r="B98" s="9"/>
       <c r="C98" s="2">
         <v>1000378</v>
@@ -6730,7 +6904,9 @@
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="9"/>
+      <c r="A99" s="3">
+        <v>10044</v>
+      </c>
       <c r="B99" s="9"/>
       <c r="C99" s="2">
         <v>1000379</v>
@@ -6746,7 +6922,9 @@
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="9"/>
+      <c r="A100" s="3">
+        <v>10044</v>
+      </c>
       <c r="B100" s="9"/>
       <c r="C100" s="2">
         <v>1000380</v>
@@ -6762,7 +6940,9 @@
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="9"/>
+      <c r="A101" s="3">
+        <v>10044</v>
+      </c>
       <c r="B101" s="9"/>
       <c r="C101" s="2">
         <v>1000381</v>
@@ -6778,7 +6958,9 @@
       </c>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="9"/>
+      <c r="A102" s="3">
+        <v>10044</v>
+      </c>
       <c r="B102" s="9"/>
       <c r="C102" s="2">
         <v>1000382</v>
@@ -6794,7 +6976,9 @@
       </c>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="9"/>
+      <c r="A103" s="3">
+        <v>10044</v>
+      </c>
       <c r="B103" s="9"/>
       <c r="C103" s="2">
         <v>1000383</v>
@@ -6810,7 +6994,9 @@
       </c>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="9"/>
+      <c r="A104" s="3">
+        <v>10044</v>
+      </c>
       <c r="B104" s="9"/>
       <c r="C104" s="2">
         <v>1000384</v>
@@ -6826,7 +7012,9 @@
       </c>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="9"/>
+      <c r="A105" s="3">
+        <v>10044</v>
+      </c>
       <c r="B105" s="9"/>
       <c r="C105" s="2">
         <v>1000385</v>
@@ -6842,7 +7030,7 @@
       </c>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="9">
+      <c r="A106" s="3">
         <v>10046</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -6862,7 +7050,9 @@
       </c>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="9"/>
+      <c r="A107" s="3">
+        <v>10046</v>
+      </c>
       <c r="B107" s="9"/>
       <c r="C107" s="2">
         <v>1000408</v>
@@ -6878,7 +7068,9 @@
       </c>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="9"/>
+      <c r="A108" s="3">
+        <v>10046</v>
+      </c>
       <c r="B108" s="9"/>
       <c r="C108" s="2">
         <v>1000409</v>
@@ -6894,7 +7086,9 @@
       </c>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="9"/>
+      <c r="A109" s="3">
+        <v>10046</v>
+      </c>
       <c r="B109" s="9"/>
       <c r="C109" s="2">
         <v>1000410</v>
@@ -6910,7 +7104,9 @@
       </c>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="9"/>
+      <c r="A110" s="3">
+        <v>10046</v>
+      </c>
       <c r="B110" s="9"/>
       <c r="C110" s="2">
         <v>1000411</v>
@@ -6926,7 +7122,9 @@
       </c>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="9"/>
+      <c r="A111" s="3">
+        <v>10046</v>
+      </c>
       <c r="B111" s="9"/>
       <c r="C111" s="2">
         <v>1000412</v>
@@ -6942,7 +7140,9 @@
       </c>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="9"/>
+      <c r="A112" s="3">
+        <v>10046</v>
+      </c>
       <c r="B112" s="9"/>
       <c r="C112" s="2">
         <v>1000413</v>
@@ -6958,7 +7158,7 @@
       </c>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="9">
+      <c r="A113" s="3">
         <v>10027</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -6978,7 +7178,9 @@
       </c>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="9"/>
+      <c r="A114" s="3">
+        <v>10027</v>
+      </c>
       <c r="B114" s="9"/>
       <c r="C114" s="2">
         <v>1000192</v>
@@ -6994,7 +7196,9 @@
       </c>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="9"/>
+      <c r="A115" s="3">
+        <v>10027</v>
+      </c>
       <c r="B115" s="9"/>
       <c r="C115" s="2">
         <v>1000193</v>
@@ -7010,7 +7214,9 @@
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="9"/>
+      <c r="A116" s="3">
+        <v>10027</v>
+      </c>
       <c r="B116" s="9"/>
       <c r="C116" s="2">
         <v>1000194</v>
@@ -7026,7 +7232,9 @@
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="9"/>
+      <c r="A117" s="3">
+        <v>10027</v>
+      </c>
       <c r="B117" s="9"/>
       <c r="C117" s="2">
         <v>1000195</v>
@@ -7042,7 +7250,9 @@
       </c>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="9"/>
+      <c r="A118" s="3">
+        <v>10027</v>
+      </c>
       <c r="B118" s="9"/>
       <c r="C118" s="2">
         <v>1000196</v>
@@ -7058,7 +7268,9 @@
       </c>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="9"/>
+      <c r="A119" s="3">
+        <v>10027</v>
+      </c>
       <c r="B119" s="9"/>
       <c r="C119" s="2">
         <v>1000197</v>
@@ -7074,7 +7286,9 @@
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="9"/>
+      <c r="A120" s="3">
+        <v>10027</v>
+      </c>
       <c r="B120" s="9"/>
       <c r="C120" s="2">
         <v>1000198</v>
@@ -7090,7 +7304,9 @@
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="9"/>
+      <c r="A121" s="3">
+        <v>10027</v>
+      </c>
       <c r="B121" s="9"/>
       <c r="C121" s="2">
         <v>1000199</v>
@@ -7106,7 +7322,9 @@
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="9"/>
+      <c r="A122" s="3">
+        <v>10027</v>
+      </c>
       <c r="B122" s="9"/>
       <c r="C122" s="2">
         <v>1000200</v>
@@ -7122,7 +7340,9 @@
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="9"/>
+      <c r="A123" s="3">
+        <v>10027</v>
+      </c>
       <c r="B123" s="9"/>
       <c r="C123" s="2">
         <v>1000416</v>
@@ -7138,7 +7358,7 @@
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="9">
+      <c r="A124" s="3">
         <v>10029</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -7158,7 +7378,9 @@
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="9"/>
+      <c r="A125" s="3">
+        <v>10029</v>
+      </c>
       <c r="B125" s="9"/>
       <c r="C125" s="2">
         <v>1000208</v>
@@ -7174,7 +7396,9 @@
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="9"/>
+      <c r="A126" s="3">
+        <v>10029</v>
+      </c>
       <c r="B126" s="9"/>
       <c r="C126" s="2">
         <v>1000209</v>
@@ -7190,7 +7414,9 @@
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="9"/>
+      <c r="A127" s="3">
+        <v>10029</v>
+      </c>
       <c r="B127" s="9"/>
       <c r="C127" s="2">
         <v>1000210</v>
@@ -7206,7 +7432,9 @@
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="9"/>
+      <c r="A128" s="3">
+        <v>10029</v>
+      </c>
       <c r="B128" s="9"/>
       <c r="C128" s="2">
         <v>1000211</v>
@@ -7222,7 +7450,9 @@
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="9"/>
+      <c r="A129" s="3">
+        <v>10029</v>
+      </c>
       <c r="B129" s="9"/>
       <c r="C129" s="2">
         <v>1000212</v>
@@ -7238,7 +7468,9 @@
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="9"/>
+      <c r="A130" s="3">
+        <v>10029</v>
+      </c>
       <c r="B130" s="9"/>
       <c r="C130" s="2">
         <v>1000213</v>
@@ -7254,7 +7486,9 @@
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="9"/>
+      <c r="A131" s="3">
+        <v>10029</v>
+      </c>
       <c r="B131" s="9"/>
       <c r="C131" s="2">
         <v>1000214</v>
@@ -7270,7 +7504,9 @@
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="9"/>
+      <c r="A132" s="3">
+        <v>10029</v>
+      </c>
       <c r="B132" s="9"/>
       <c r="C132" s="2">
         <v>1000215</v>
@@ -7286,7 +7522,7 @@
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="9">
+      <c r="A133" s="3">
         <v>10031</v>
       </c>
       <c r="B133" s="9" t="s">
@@ -7306,7 +7542,9 @@
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="9"/>
+      <c r="A134" s="3">
+        <v>10031</v>
+      </c>
       <c r="B134" s="9"/>
       <c r="C134" s="2">
         <v>1000230</v>
@@ -7322,7 +7560,9 @@
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="9"/>
+      <c r="A135" s="3">
+        <v>10031</v>
+      </c>
       <c r="B135" s="9"/>
       <c r="C135" s="2">
         <v>1000231</v>
@@ -7338,7 +7578,9 @@
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="9"/>
+      <c r="A136" s="3">
+        <v>10031</v>
+      </c>
       <c r="B136" s="9"/>
       <c r="C136" s="2">
         <v>1000232</v>
@@ -7354,7 +7596,9 @@
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="9"/>
+      <c r="A137" s="3">
+        <v>10031</v>
+      </c>
       <c r="B137" s="9"/>
       <c r="C137" s="2">
         <v>1000233</v>
@@ -7370,7 +7614,9 @@
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="9"/>
+      <c r="A138" s="3">
+        <v>10031</v>
+      </c>
       <c r="B138" s="9"/>
       <c r="C138" s="2">
         <v>1000234</v>
@@ -7386,7 +7632,9 @@
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="9"/>
+      <c r="A139" s="3">
+        <v>10031</v>
+      </c>
       <c r="B139" s="9"/>
       <c r="C139" s="2">
         <v>1000235</v>
@@ -7402,7 +7650,9 @@
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="9"/>
+      <c r="A140" s="3">
+        <v>10031</v>
+      </c>
       <c r="B140" s="9"/>
       <c r="C140" s="2">
         <v>1000236</v>
@@ -7418,7 +7668,9 @@
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="9"/>
+      <c r="A141" s="3">
+        <v>10031</v>
+      </c>
       <c r="B141" s="9"/>
       <c r="C141" s="2">
         <v>1000237</v>
@@ -7434,7 +7686,9 @@
       </c>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="9"/>
+      <c r="A142" s="3">
+        <v>10031</v>
+      </c>
       <c r="B142" s="9"/>
       <c r="C142" s="2">
         <v>1000238</v>
@@ -7450,7 +7704,9 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="9"/>
+      <c r="A143" s="3">
+        <v>10031</v>
+      </c>
       <c r="B143" s="9"/>
       <c r="C143" s="2">
         <v>1000239</v>
@@ -7466,7 +7722,9 @@
       </c>
     </row>
     <row r="144" spans="1:8">
-      <c r="A144" s="9"/>
+      <c r="A144" s="3">
+        <v>10031</v>
+      </c>
       <c r="B144" s="9"/>
       <c r="C144" s="2">
         <v>1000240</v>
@@ -7482,7 +7740,9 @@
       </c>
     </row>
     <row r="145" spans="1:8">
-      <c r="A145" s="9"/>
+      <c r="A145" s="3">
+        <v>10031</v>
+      </c>
       <c r="B145" s="9"/>
       <c r="C145" s="2">
         <v>1000241</v>
@@ -7498,7 +7758,9 @@
       </c>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" s="9"/>
+      <c r="A146" s="3">
+        <v>10031</v>
+      </c>
       <c r="B146" s="9"/>
       <c r="C146" s="2">
         <v>1000242</v>
@@ -7514,7 +7776,9 @@
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" s="9"/>
+      <c r="A147" s="3">
+        <v>10031</v>
+      </c>
       <c r="B147" s="9"/>
       <c r="C147" s="2">
         <v>1000243</v>
@@ -7530,7 +7794,9 @@
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" s="9"/>
+      <c r="A148" s="3">
+        <v>10031</v>
+      </c>
       <c r="B148" s="9"/>
       <c r="C148" s="2">
         <v>1000244</v>
@@ -7546,7 +7812,9 @@
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" s="9"/>
+      <c r="A149" s="3">
+        <v>10031</v>
+      </c>
       <c r="B149" s="9"/>
       <c r="C149" s="2">
         <v>1000245</v>
@@ -7562,7 +7830,9 @@
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150" s="9"/>
+      <c r="A150" s="3">
+        <v>10031</v>
+      </c>
       <c r="B150" s="9"/>
       <c r="C150" s="2">
         <v>1000246</v>
@@ -7578,7 +7848,9 @@
       </c>
     </row>
     <row r="151" spans="1:8">
-      <c r="A151" s="9"/>
+      <c r="A151" s="3">
+        <v>10031</v>
+      </c>
       <c r="B151" s="9"/>
       <c r="C151" s="2">
         <v>1000247</v>
@@ -7594,7 +7866,9 @@
       </c>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" s="9"/>
+      <c r="A152" s="3">
+        <v>10031</v>
+      </c>
       <c r="B152" s="9"/>
       <c r="C152" s="2">
         <v>1000417</v>
@@ -7610,7 +7884,9 @@
       </c>
     </row>
     <row r="153" spans="1:8">
-      <c r="A153" s="9"/>
+      <c r="A153" s="3">
+        <v>10031</v>
+      </c>
       <c r="B153" s="9"/>
       <c r="C153" s="2">
         <v>1000418</v>
@@ -7626,7 +7902,9 @@
       </c>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" s="9"/>
+      <c r="A154" s="3">
+        <v>10031</v>
+      </c>
       <c r="B154" s="9"/>
       <c r="C154" s="2">
         <v>1000419</v>
@@ -7642,7 +7920,9 @@
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" s="9"/>
+      <c r="A155" s="3">
+        <v>10031</v>
+      </c>
       <c r="B155" s="9"/>
       <c r="C155" s="2">
         <v>1000420</v>
@@ -7658,7 +7938,9 @@
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" s="9"/>
+      <c r="A156" s="3">
+        <v>10031</v>
+      </c>
       <c r="B156" s="9"/>
       <c r="C156" s="2">
         <v>1000421</v>
@@ -7674,7 +7956,9 @@
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" s="9"/>
+      <c r="A157" s="3">
+        <v>10031</v>
+      </c>
       <c r="B157" s="9"/>
       <c r="C157" s="2">
         <v>1000422</v>
@@ -7690,7 +7974,9 @@
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" s="9"/>
+      <c r="A158" s="3">
+        <v>10031</v>
+      </c>
       <c r="B158" s="9"/>
       <c r="C158" s="2">
         <v>1000423</v>
@@ -7706,7 +7992,7 @@
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" s="9">
+      <c r="A159" s="3">
         <v>10033</v>
       </c>
       <c r="B159" s="9" t="s">
@@ -7726,7 +8012,9 @@
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" s="9"/>
+      <c r="A160" s="3">
+        <v>10033</v>
+      </c>
       <c r="B160" s="9"/>
       <c r="C160" s="2">
         <v>1000266</v>
@@ -7742,7 +8030,9 @@
       </c>
     </row>
     <row r="161" spans="1:8">
-      <c r="A161" s="9"/>
+      <c r="A161" s="3">
+        <v>10033</v>
+      </c>
       <c r="B161" s="9"/>
       <c r="C161" s="2">
         <v>1000267</v>
@@ -7758,7 +8048,9 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="9"/>
+      <c r="A162" s="3">
+        <v>10033</v>
+      </c>
       <c r="B162" s="9"/>
       <c r="C162" s="2">
         <v>1000268</v>
@@ -7774,7 +8066,9 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="9"/>
+      <c r="A163" s="3">
+        <v>10033</v>
+      </c>
       <c r="B163" s="9"/>
       <c r="C163" s="2">
         <v>1000269</v>
@@ -7790,7 +8084,7 @@
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="9">
+      <c r="A164" s="3">
         <v>10035</v>
       </c>
       <c r="B164" s="9" t="s">
@@ -7810,7 +8104,9 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="9"/>
+      <c r="A165" s="3">
+        <v>10035</v>
+      </c>
       <c r="B165" s="9"/>
       <c r="C165" s="2">
         <v>1000278</v>
@@ -7826,7 +8122,9 @@
       </c>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="9"/>
+      <c r="A166" s="3">
+        <v>10035</v>
+      </c>
       <c r="B166" s="9"/>
       <c r="C166" s="2">
         <v>1000279</v>
@@ -7842,7 +8140,9 @@
       </c>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="9"/>
+      <c r="A167" s="3">
+        <v>10035</v>
+      </c>
       <c r="B167" s="9"/>
       <c r="C167" s="2">
         <v>1000280</v>
@@ -7858,7 +8158,9 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="9"/>
+      <c r="A168" s="3">
+        <v>10035</v>
+      </c>
       <c r="B168" s="9"/>
       <c r="C168" s="2">
         <v>1000281</v>
@@ -7874,7 +8176,9 @@
       </c>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="9"/>
+      <c r="A169" s="3">
+        <v>10035</v>
+      </c>
       <c r="B169" s="9"/>
       <c r="C169" s="2">
         <v>1000282</v>
@@ -7890,7 +8194,9 @@
       </c>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="9"/>
+      <c r="A170" s="3">
+        <v>10035</v>
+      </c>
       <c r="B170" s="9"/>
       <c r="C170" s="2">
         <v>1000283</v>
@@ -7906,7 +8212,9 @@
       </c>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="9"/>
+      <c r="A171" s="3">
+        <v>10035</v>
+      </c>
       <c r="B171" s="9"/>
       <c r="C171" s="2">
         <v>1000284</v>
@@ -7922,7 +8230,9 @@
       </c>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="9"/>
+      <c r="A172" s="3">
+        <v>10035</v>
+      </c>
       <c r="B172" s="9"/>
       <c r="C172" s="2">
         <v>1000285</v>
@@ -7938,7 +8248,7 @@
       </c>
     </row>
     <row r="173" spans="1:8">
-      <c r="A173" s="9">
+      <c r="A173" s="3">
         <v>10037</v>
       </c>
       <c r="B173" s="9" t="s">
@@ -7958,7 +8268,9 @@
       </c>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" s="9"/>
+      <c r="A174" s="3">
+        <v>10037</v>
+      </c>
       <c r="B174" s="9"/>
       <c r="C174" s="2">
         <v>1000290</v>
@@ -7974,7 +8286,9 @@
       </c>
     </row>
     <row r="175" spans="1:8">
-      <c r="A175" s="9"/>
+      <c r="A175" s="3">
+        <v>10037</v>
+      </c>
       <c r="B175" s="9"/>
       <c r="C175" s="2">
         <v>1000291</v>
@@ -7990,7 +8304,9 @@
       </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="A176" s="9"/>
+      <c r="A176" s="3">
+        <v>10037</v>
+      </c>
       <c r="B176" s="9"/>
       <c r="C176" s="2">
         <v>1000292</v>
@@ -8006,7 +8322,9 @@
       </c>
     </row>
     <row r="177" spans="1:8">
-      <c r="A177" s="9"/>
+      <c r="A177" s="3">
+        <v>10037</v>
+      </c>
       <c r="B177" s="9"/>
       <c r="C177" s="2">
         <v>1000293</v>
@@ -8022,7 +8340,9 @@
       </c>
     </row>
     <row r="178" spans="1:8">
-      <c r="A178" s="9"/>
+      <c r="A178" s="3">
+        <v>10037</v>
+      </c>
       <c r="B178" s="9"/>
       <c r="C178" s="2">
         <v>1000294</v>
@@ -8038,7 +8358,9 @@
       </c>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" s="9"/>
+      <c r="A179" s="3">
+        <v>10037</v>
+      </c>
       <c r="B179" s="9"/>
       <c r="C179" s="2">
         <v>1000295</v>
@@ -8054,7 +8376,9 @@
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" s="9"/>
+      <c r="A180" s="3">
+        <v>10037</v>
+      </c>
       <c r="B180" s="9"/>
       <c r="C180" s="2">
         <v>1000296</v>
@@ -8070,7 +8394,7 @@
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="9">
+      <c r="A181" s="3">
         <v>10039</v>
       </c>
       <c r="B181" s="9" t="s">
@@ -8090,7 +8414,9 @@
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="9"/>
+      <c r="A182" s="3">
+        <v>10039</v>
+      </c>
       <c r="B182" s="9"/>
       <c r="C182" s="2">
         <v>1000310</v>
@@ -8106,7 +8432,9 @@
       </c>
     </row>
     <row r="183" spans="1:8">
-      <c r="A183" s="9"/>
+      <c r="A183" s="3">
+        <v>10039</v>
+      </c>
       <c r="B183" s="9"/>
       <c r="C183" s="2">
         <v>1000311</v>
@@ -8122,7 +8450,9 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="A184" s="9"/>
+      <c r="A184" s="3">
+        <v>10039</v>
+      </c>
       <c r="B184" s="9"/>
       <c r="C184" s="2">
         <v>1000312</v>
@@ -8138,7 +8468,9 @@
       </c>
     </row>
     <row r="185" spans="1:8">
-      <c r="A185" s="9"/>
+      <c r="A185" s="3">
+        <v>10039</v>
+      </c>
       <c r="B185" s="9"/>
       <c r="C185" s="2">
         <v>1000313</v>
@@ -8154,7 +8486,9 @@
       </c>
     </row>
     <row r="186" spans="1:8">
-      <c r="A186" s="9"/>
+      <c r="A186" s="3">
+        <v>10039</v>
+      </c>
       <c r="B186" s="9"/>
       <c r="C186" s="2">
         <v>1000314</v>
@@ -8170,7 +8504,9 @@
       </c>
     </row>
     <row r="187" spans="1:8">
-      <c r="A187" s="9"/>
+      <c r="A187" s="3">
+        <v>10039</v>
+      </c>
       <c r="B187" s="9"/>
       <c r="C187" s="2">
         <v>1000315</v>
@@ -8186,7 +8522,9 @@
       </c>
     </row>
     <row r="188" spans="1:8">
-      <c r="A188" s="9"/>
+      <c r="A188" s="3">
+        <v>10039</v>
+      </c>
       <c r="B188" s="9"/>
       <c r="C188" s="2">
         <v>1000316</v>
@@ -8202,7 +8540,9 @@
       </c>
     </row>
     <row r="189" spans="1:8">
-      <c r="A189" s="9"/>
+      <c r="A189" s="3">
+        <v>10039</v>
+      </c>
       <c r="B189" s="9"/>
       <c r="C189" s="2">
         <v>1000317</v>
@@ -8218,7 +8558,9 @@
       </c>
     </row>
     <row r="190" spans="1:8">
-      <c r="A190" s="9"/>
+      <c r="A190" s="3">
+        <v>10039</v>
+      </c>
       <c r="B190" s="9"/>
       <c r="C190" s="2">
         <v>1000318</v>
@@ -8234,7 +8576,9 @@
       </c>
     </row>
     <row r="191" spans="1:8">
-      <c r="A191" s="9"/>
+      <c r="A191" s="3">
+        <v>10039</v>
+      </c>
       <c r="B191" s="9"/>
       <c r="C191" s="2">
         <v>1000319</v>
@@ -8250,7 +8594,9 @@
       </c>
     </row>
     <row r="192" spans="1:8">
-      <c r="A192" s="9"/>
+      <c r="A192" s="3">
+        <v>10039</v>
+      </c>
       <c r="B192" s="9"/>
       <c r="C192" s="2">
         <v>1000320</v>
@@ -8266,7 +8612,9 @@
       </c>
     </row>
     <row r="193" spans="1:8">
-      <c r="A193" s="9"/>
+      <c r="A193" s="3">
+        <v>10039</v>
+      </c>
       <c r="B193" s="9"/>
       <c r="C193" s="2">
         <v>1000321</v>
@@ -8282,7 +8630,9 @@
       </c>
     </row>
     <row r="194" spans="1:8">
-      <c r="A194" s="9"/>
+      <c r="A194" s="3">
+        <v>10039</v>
+      </c>
       <c r="B194" s="9"/>
       <c r="C194" s="2">
         <v>1000322</v>
@@ -8298,7 +8648,9 @@
       </c>
     </row>
     <row r="195" spans="1:8">
-      <c r="A195" s="9"/>
+      <c r="A195" s="3">
+        <v>10039</v>
+      </c>
       <c r="B195" s="9"/>
       <c r="C195" s="2">
         <v>1000323</v>
@@ -8314,7 +8666,9 @@
       </c>
     </row>
     <row r="196" spans="1:8">
-      <c r="A196" s="9"/>
+      <c r="A196" s="3">
+        <v>10039</v>
+      </c>
       <c r="B196" s="9"/>
       <c r="C196" s="2">
         <v>1000324</v>
@@ -8330,7 +8684,9 @@
       </c>
     </row>
     <row r="197" spans="1:8">
-      <c r="A197" s="9"/>
+      <c r="A197" s="3">
+        <v>10039</v>
+      </c>
       <c r="B197" s="9"/>
       <c r="C197" s="2">
         <v>1000325</v>
@@ -8346,7 +8702,7 @@
       </c>
     </row>
     <row r="198" spans="1:8">
-      <c r="A198" s="9">
+      <c r="A198" s="3">
         <v>10041</v>
       </c>
       <c r="B198" s="9" t="s">
@@ -8366,7 +8722,9 @@
       </c>
     </row>
     <row r="199" spans="1:8">
-      <c r="A199" s="9"/>
+      <c r="A199" s="3">
+        <v>10041</v>
+      </c>
       <c r="B199" s="9"/>
       <c r="C199" s="2">
         <v>1000339</v>
@@ -8382,7 +8740,9 @@
       </c>
     </row>
     <row r="200" spans="1:8">
-      <c r="A200" s="9"/>
+      <c r="A200" s="3">
+        <v>10041</v>
+      </c>
       <c r="B200" s="9"/>
       <c r="C200" s="2">
         <v>1000340</v>
@@ -8398,7 +8758,9 @@
       </c>
     </row>
     <row r="201" spans="1:8">
-      <c r="A201" s="9"/>
+      <c r="A201" s="3">
+        <v>10041</v>
+      </c>
       <c r="B201" s="9"/>
       <c r="C201" s="2">
         <v>1000341</v>
@@ -8414,7 +8776,9 @@
       </c>
     </row>
     <row r="202" spans="1:8">
-      <c r="A202" s="9"/>
+      <c r="A202" s="3">
+        <v>10041</v>
+      </c>
       <c r="B202" s="9"/>
       <c r="C202" s="2">
         <v>1000342</v>
@@ -8430,7 +8794,9 @@
       </c>
     </row>
     <row r="203" spans="1:8">
-      <c r="A203" s="9"/>
+      <c r="A203" s="3">
+        <v>10041</v>
+      </c>
       <c r="B203" s="9"/>
       <c r="C203" s="2">
         <v>1000343</v>
@@ -8446,7 +8812,7 @@
       </c>
     </row>
     <row r="204" spans="1:8">
-      <c r="A204" s="9">
+      <c r="A204" s="3">
         <v>10043</v>
       </c>
       <c r="B204" s="9" t="s">
@@ -8466,7 +8832,9 @@
       </c>
     </row>
     <row r="205" spans="1:8">
-      <c r="A205" s="9"/>
+      <c r="A205" s="3">
+        <v>10043</v>
+      </c>
       <c r="B205" s="9"/>
       <c r="C205" s="2">
         <v>1000355</v>
@@ -8482,7 +8850,9 @@
       </c>
     </row>
     <row r="206" spans="1:8">
-      <c r="A206" s="9"/>
+      <c r="A206" s="3">
+        <v>10043</v>
+      </c>
       <c r="B206" s="9"/>
       <c r="C206" s="2">
         <v>1000356</v>
@@ -8498,7 +8868,9 @@
       </c>
     </row>
     <row r="207" spans="1:8">
-      <c r="A207" s="9"/>
+      <c r="A207" s="3">
+        <v>10043</v>
+      </c>
       <c r="B207" s="9"/>
       <c r="C207" s="2">
         <v>1000357</v>
@@ -8514,7 +8886,9 @@
       </c>
     </row>
     <row r="208" spans="1:8">
-      <c r="A208" s="9"/>
+      <c r="A208" s="3">
+        <v>10043</v>
+      </c>
       <c r="B208" s="9"/>
       <c r="C208" s="2">
         <v>1000358</v>
@@ -8530,7 +8904,9 @@
       </c>
     </row>
     <row r="209" spans="1:8">
-      <c r="A209" s="9"/>
+      <c r="A209" s="3">
+        <v>10043</v>
+      </c>
       <c r="B209" s="9"/>
       <c r="C209" s="2">
         <v>1000359</v>
@@ -8546,7 +8922,9 @@
       </c>
     </row>
     <row r="210" spans="1:8">
-      <c r="A210" s="9"/>
+      <c r="A210" s="3">
+        <v>10043</v>
+      </c>
       <c r="B210" s="9"/>
       <c r="C210" s="2">
         <v>1000360</v>
@@ -8562,7 +8940,9 @@
       </c>
     </row>
     <row r="211" spans="1:8">
-      <c r="A211" s="9"/>
+      <c r="A211" s="3">
+        <v>10043</v>
+      </c>
       <c r="B211" s="9"/>
       <c r="C211" s="2">
         <v>1000361</v>
@@ -8578,7 +8958,9 @@
       </c>
     </row>
     <row r="212" spans="1:8">
-      <c r="A212" s="9"/>
+      <c r="A212" s="3">
+        <v>10043</v>
+      </c>
       <c r="B212" s="9"/>
       <c r="C212" s="2">
         <v>1000362</v>
@@ -8594,7 +8976,9 @@
       </c>
     </row>
     <row r="213" spans="1:8">
-      <c r="A213" s="9"/>
+      <c r="A213" s="3">
+        <v>10043</v>
+      </c>
       <c r="B213" s="9"/>
       <c r="C213" s="2">
         <v>1000363</v>
@@ -8610,7 +8994,9 @@
       </c>
     </row>
     <row r="214" spans="1:8">
-      <c r="A214" s="9"/>
+      <c r="A214" s="3">
+        <v>10043</v>
+      </c>
       <c r="B214" s="9"/>
       <c r="C214" s="2">
         <v>1000364</v>
@@ -8626,7 +9012,9 @@
       </c>
     </row>
     <row r="215" spans="1:8">
-      <c r="A215" s="9"/>
+      <c r="A215" s="3">
+        <v>10043</v>
+      </c>
       <c r="B215" s="9"/>
       <c r="C215" s="2">
         <v>1000365</v>
@@ -8642,7 +9030,9 @@
       </c>
     </row>
     <row r="216" spans="1:8">
-      <c r="A216" s="9"/>
+      <c r="A216" s="3">
+        <v>10043</v>
+      </c>
       <c r="B216" s="9"/>
       <c r="C216" s="2">
         <v>1000366</v>
@@ -8658,7 +9048,9 @@
       </c>
     </row>
     <row r="217" spans="1:8">
-      <c r="A217" s="9"/>
+      <c r="A217" s="3">
+        <v>10043</v>
+      </c>
       <c r="B217" s="9"/>
       <c r="C217" s="2">
         <v>1000367</v>
@@ -8674,7 +9066,9 @@
       </c>
     </row>
     <row r="218" spans="1:8">
-      <c r="A218" s="9"/>
+      <c r="A218" s="3">
+        <v>10043</v>
+      </c>
       <c r="B218" s="9"/>
       <c r="C218" s="2">
         <v>1000368</v>
@@ -8690,7 +9084,9 @@
       </c>
     </row>
     <row r="219" spans="1:8">
-      <c r="A219" s="9"/>
+      <c r="A219" s="3">
+        <v>10043</v>
+      </c>
       <c r="B219" s="9"/>
       <c r="C219" s="2">
         <v>1000369</v>
@@ -8706,7 +9102,9 @@
       </c>
     </row>
     <row r="220" spans="1:8">
-      <c r="A220" s="9"/>
+      <c r="A220" s="3">
+        <v>10043</v>
+      </c>
       <c r="B220" s="9"/>
       <c r="C220" s="2">
         <v>1000370</v>
@@ -8722,7 +9120,9 @@
       </c>
     </row>
     <row r="221" spans="1:8">
-      <c r="A221" s="9"/>
+      <c r="A221" s="3">
+        <v>10043</v>
+      </c>
       <c r="B221" s="9"/>
       <c r="C221" s="2">
         <v>1000371</v>
@@ -8738,7 +9138,7 @@
       </c>
     </row>
     <row r="222" spans="1:8">
-      <c r="A222" s="9">
+      <c r="A222" s="3">
         <v>10045</v>
       </c>
       <c r="B222" s="9" t="s">
@@ -8758,7 +9158,9 @@
       </c>
     </row>
     <row r="223" spans="1:8">
-      <c r="A223" s="9"/>
+      <c r="A223" s="3">
+        <v>10045</v>
+      </c>
       <c r="B223" s="9"/>
       <c r="C223" s="2">
         <v>1000387</v>
@@ -8774,7 +9176,9 @@
       </c>
     </row>
     <row r="224" spans="1:8">
-      <c r="A224" s="9"/>
+      <c r="A224" s="3">
+        <v>10045</v>
+      </c>
       <c r="B224" s="9"/>
       <c r="C224" s="2">
         <v>1000388</v>
@@ -8790,7 +9194,9 @@
       </c>
     </row>
     <row r="225" spans="1:8">
-      <c r="A225" s="9"/>
+      <c r="A225" s="3">
+        <v>10045</v>
+      </c>
       <c r="B225" s="9"/>
       <c r="C225" s="2">
         <v>1000389</v>
@@ -8806,7 +9212,9 @@
       </c>
     </row>
     <row r="226" spans="1:8">
-      <c r="A226" s="9"/>
+      <c r="A226" s="3">
+        <v>10045</v>
+      </c>
       <c r="B226" s="9"/>
       <c r="C226" s="2">
         <v>1000390</v>
@@ -8822,7 +9230,9 @@
       </c>
     </row>
     <row r="227" spans="1:8">
-      <c r="A227" s="9"/>
+      <c r="A227" s="3">
+        <v>10045</v>
+      </c>
       <c r="B227" s="9"/>
       <c r="C227" s="2">
         <v>1000391</v>
@@ -8838,7 +9248,9 @@
       </c>
     </row>
     <row r="228" spans="1:8">
-      <c r="A228" s="9"/>
+      <c r="A228" s="3">
+        <v>10045</v>
+      </c>
       <c r="B228" s="9"/>
       <c r="C228" s="2">
         <v>1000392</v>
@@ -8854,7 +9266,9 @@
       </c>
     </row>
     <row r="229" spans="1:8">
-      <c r="A229" s="9"/>
+      <c r="A229" s="3">
+        <v>10045</v>
+      </c>
       <c r="B229" s="9"/>
       <c r="C229" s="2">
         <v>1000393</v>
@@ -8870,7 +9284,9 @@
       </c>
     </row>
     <row r="230" spans="1:8">
-      <c r="A230" s="9"/>
+      <c r="A230" s="3">
+        <v>10045</v>
+      </c>
       <c r="B230" s="9"/>
       <c r="C230" s="2">
         <v>1000394</v>
@@ -8886,7 +9302,9 @@
       </c>
     </row>
     <row r="231" spans="1:8">
-      <c r="A231" s="9"/>
+      <c r="A231" s="3">
+        <v>10045</v>
+      </c>
       <c r="B231" s="9"/>
       <c r="C231" s="2">
         <v>1000395</v>
@@ -8902,7 +9320,9 @@
       </c>
     </row>
     <row r="232" spans="1:8">
-      <c r="A232" s="9"/>
+      <c r="A232" s="3">
+        <v>10045</v>
+      </c>
       <c r="B232" s="9"/>
       <c r="C232" s="2">
         <v>1000396</v>
@@ -8918,7 +9338,9 @@
       </c>
     </row>
     <row r="233" spans="1:8">
-      <c r="A233" s="9"/>
+      <c r="A233" s="3">
+        <v>10045</v>
+      </c>
       <c r="B233" s="9"/>
       <c r="C233" s="2">
         <v>1000397</v>
@@ -8934,7 +9356,9 @@
       </c>
     </row>
     <row r="234" spans="1:8">
-      <c r="A234" s="9"/>
+      <c r="A234" s="3">
+        <v>10045</v>
+      </c>
       <c r="B234" s="9"/>
       <c r="C234" s="2">
         <v>1000398</v>
@@ -8950,7 +9374,9 @@
       </c>
     </row>
     <row r="235" spans="1:8">
-      <c r="A235" s="9"/>
+      <c r="A235" s="3">
+        <v>10045</v>
+      </c>
       <c r="B235" s="9"/>
       <c r="C235" s="2">
         <v>1000399</v>
@@ -8966,7 +9392,9 @@
       </c>
     </row>
     <row r="236" spans="1:8">
-      <c r="A236" s="9"/>
+      <c r="A236" s="3">
+        <v>10045</v>
+      </c>
       <c r="B236" s="9"/>
       <c r="C236" s="2">
         <v>1000400</v>
@@ -8982,7 +9410,9 @@
       </c>
     </row>
     <row r="237" spans="1:8">
-      <c r="A237" s="9"/>
+      <c r="A237" s="3">
+        <v>10045</v>
+      </c>
       <c r="B237" s="9"/>
       <c r="C237" s="2">
         <v>1000401</v>
@@ -8998,7 +9428,9 @@
       </c>
     </row>
     <row r="238" spans="1:8">
-      <c r="A238" s="9"/>
+      <c r="A238" s="3">
+        <v>10045</v>
+      </c>
       <c r="B238" s="9"/>
       <c r="C238" s="2">
         <v>1000402</v>
@@ -9014,7 +9446,9 @@
       </c>
     </row>
     <row r="239" spans="1:8">
-      <c r="A239" s="9"/>
+      <c r="A239" s="3">
+        <v>10045</v>
+      </c>
       <c r="B239" s="9"/>
       <c r="C239" s="2">
         <v>1000403</v>
@@ -9030,7 +9464,9 @@
       </c>
     </row>
     <row r="240" spans="1:8">
-      <c r="A240" s="9"/>
+      <c r="A240" s="3">
+        <v>10045</v>
+      </c>
       <c r="B240" s="9"/>
       <c r="C240" s="2">
         <v>1000404</v>
@@ -9046,7 +9482,9 @@
       </c>
     </row>
     <row r="241" spans="1:8">
-      <c r="A241" s="9"/>
+      <c r="A241" s="3">
+        <v>10045</v>
+      </c>
       <c r="B241" s="9"/>
       <c r="C241" s="2">
         <v>1000405</v>
@@ -9062,7 +9500,9 @@
       </c>
     </row>
     <row r="242" spans="1:8">
-      <c r="A242" s="9"/>
+      <c r="A242" s="3">
+        <v>10045</v>
+      </c>
       <c r="B242" s="9"/>
       <c r="C242" s="2">
         <v>1000406</v>
@@ -9078,7 +9518,9 @@
       </c>
     </row>
     <row r="243" spans="1:8">
-      <c r="A243" s="9"/>
+      <c r="A243" s="3">
+        <v>10045</v>
+      </c>
       <c r="B243" s="9"/>
       <c r="C243" s="2">
         <v>1000426</v>
@@ -9100,49 +9542,28 @@
       <c r="E245" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="A16:A28"/>
-    <mergeCell ref="B16:B28"/>
+  <mergeCells count="21">
+    <mergeCell ref="B222:B243"/>
+    <mergeCell ref="B181:B197"/>
+    <mergeCell ref="B198:B203"/>
+    <mergeCell ref="B204:B221"/>
+    <mergeCell ref="B159:B163"/>
+    <mergeCell ref="B164:B172"/>
+    <mergeCell ref="B173:B180"/>
+    <mergeCell ref="B113:B123"/>
+    <mergeCell ref="B124:B132"/>
+    <mergeCell ref="B133:B158"/>
+    <mergeCell ref="B81:B91"/>
+    <mergeCell ref="B92:B105"/>
+    <mergeCell ref="B106:B112"/>
     <mergeCell ref="B56:B67"/>
-    <mergeCell ref="A56:A67"/>
     <mergeCell ref="B68:B80"/>
-    <mergeCell ref="A68:A80"/>
     <mergeCell ref="B29:B45"/>
-    <mergeCell ref="A29:A45"/>
-    <mergeCell ref="A46:A52"/>
     <mergeCell ref="B46:B52"/>
     <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A81:A91"/>
-    <mergeCell ref="B81:B91"/>
-    <mergeCell ref="B92:B105"/>
-    <mergeCell ref="A92:A105"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="B113:B123"/>
-    <mergeCell ref="A113:A123"/>
-    <mergeCell ref="B124:B132"/>
-    <mergeCell ref="A124:A132"/>
-    <mergeCell ref="B133:B158"/>
-    <mergeCell ref="A133:A158"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="A159:A163"/>
-    <mergeCell ref="A164:A172"/>
-    <mergeCell ref="B164:B172"/>
-    <mergeCell ref="B173:B180"/>
-    <mergeCell ref="A173:A180"/>
-    <mergeCell ref="B222:B243"/>
-    <mergeCell ref="A222:A243"/>
-    <mergeCell ref="B181:B197"/>
-    <mergeCell ref="A181:A197"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="A198:A203"/>
-    <mergeCell ref="A204:A221"/>
-    <mergeCell ref="B204:B221"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jobkorea_jobCode.xlsx
+++ b/jobkorea_jobCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
   <si>
     <t>공고개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4726,6 +4726,22 @@
   </si>
   <si>
     <t>jobCatId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5105,10 +5121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D233" sqref="D233"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5993,7 +6009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:11">
       <c r="A49" s="3">
         <v>10034</v>
       </c>
@@ -6011,7 +6027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:11">
       <c r="A50" s="3">
         <v>10034</v>
       </c>
@@ -6029,7 +6045,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:11">
       <c r="A51" s="3">
         <v>10034</v>
       </c>
@@ -6046,8 +6062,14 @@
       <c r="H51" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="J51" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>10034</v>
       </c>
@@ -6064,8 +6086,17 @@
       <c r="H52" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="J52" s="2">
+        <v>310000</v>
+      </c>
+      <c r="K52" s="2">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="3">
         <v>10036</v>
       </c>
@@ -6084,8 +6115,17 @@
       <c r="H53" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="J53" s="2">
+        <v>242</v>
+      </c>
+      <c r="K53" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="3">
         <v>10036</v>
       </c>
@@ -6103,7 +6143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:11">
       <c r="A55" s="3">
         <v>10036</v>
       </c>
@@ -6121,7 +6161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:11">
       <c r="A56" s="3">
         <v>10038</v>
       </c>
@@ -6141,7 +6181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:11">
       <c r="A57" s="3">
         <v>10038</v>
       </c>
@@ -6159,7 +6199,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:11">
       <c r="A58" s="3">
         <v>10038</v>
       </c>
@@ -6177,7 +6217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:11">
       <c r="A59" s="3">
         <v>10038</v>
       </c>
@@ -6195,7 +6235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:11">
       <c r="A60" s="3">
         <v>10038</v>
       </c>
@@ -6213,7 +6253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:11">
       <c r="A61" s="3">
         <v>10038</v>
       </c>
@@ -6231,7 +6271,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:11">
       <c r="A62" s="3">
         <v>10038</v>
       </c>
@@ -6249,7 +6289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:11">
       <c r="A63" s="3">
         <v>10038</v>
       </c>
@@ -6267,7 +6307,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:11">
       <c r="A64" s="3">
         <v>10038</v>
       </c>
@@ -9543,6 +9583,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B28"/>
+    <mergeCell ref="B56:B67"/>
+    <mergeCell ref="B68:B80"/>
+    <mergeCell ref="B29:B45"/>
+    <mergeCell ref="B46:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B113:B123"/>
+    <mergeCell ref="B124:B132"/>
+    <mergeCell ref="B133:B158"/>
+    <mergeCell ref="B81:B91"/>
+    <mergeCell ref="B92:B105"/>
+    <mergeCell ref="B106:B112"/>
     <mergeCell ref="B222:B243"/>
     <mergeCell ref="B181:B197"/>
     <mergeCell ref="B198:B203"/>
@@ -9550,20 +9604,6 @@
     <mergeCell ref="B159:B163"/>
     <mergeCell ref="B164:B172"/>
     <mergeCell ref="B173:B180"/>
-    <mergeCell ref="B113:B123"/>
-    <mergeCell ref="B124:B132"/>
-    <mergeCell ref="B133:B158"/>
-    <mergeCell ref="B81:B91"/>
-    <mergeCell ref="B92:B105"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="B56:B67"/>
-    <mergeCell ref="B68:B80"/>
-    <mergeCell ref="B29:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jobkorea_jobCode.xlsx
+++ b/jobkorea_jobCode.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="514">
   <si>
     <t>공고개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4717,10 +4717,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4742,6 +4738,14 @@
   </si>
   <si>
     <t>현재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobCatName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4819,7 +4823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4834,9 +4838,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5123,8 +5124,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5141,13 +5142,16 @@
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="28.5" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>506</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>507</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -5157,7 +5161,7 @@
       <c r="A2" s="3">
         <v>10026</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C2" s="1">
@@ -5177,7 +5181,9 @@
       <c r="A3" s="3">
         <v>10026</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="C3" s="2">
         <v>1000186</v>
       </c>
@@ -5195,7 +5201,9 @@
       <c r="A4" s="3">
         <v>10026</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="C4" s="1">
         <v>1000187</v>
       </c>
@@ -5213,7 +5221,9 @@
       <c r="A5" s="3">
         <v>10026</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="C5" s="2">
         <v>1000188</v>
       </c>
@@ -5231,7 +5241,9 @@
       <c r="A6" s="3">
         <v>10026</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="C6" s="1">
         <v>1000189</v>
       </c>
@@ -5249,7 +5261,9 @@
       <c r="A7" s="3">
         <v>10026</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="C7" s="2">
         <v>1000190</v>
       </c>
@@ -5267,7 +5281,9 @@
       <c r="A8" s="3">
         <v>10026</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="C8" s="2">
         <v>1000414</v>
       </c>
@@ -5285,7 +5301,9 @@
       <c r="A9" s="3">
         <v>10026</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="C9" s="2">
         <v>1000415</v>
       </c>
@@ -5303,7 +5321,7 @@
       <c r="A10" s="3">
         <v>10028</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>255</v>
       </c>
       <c r="C10" s="2">
@@ -5323,7 +5341,9 @@
       <c r="A11" s="3">
         <v>10028</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C11" s="2">
         <v>1000202</v>
       </c>
@@ -5341,7 +5361,9 @@
       <c r="A12" s="3">
         <v>10028</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C12" s="2">
         <v>1000203</v>
       </c>
@@ -5359,7 +5381,9 @@
       <c r="A13" s="3">
         <v>10028</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C13" s="2">
         <v>1000204</v>
       </c>
@@ -5377,7 +5401,9 @@
       <c r="A14" s="3">
         <v>10028</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C14" s="2">
         <v>1000205</v>
       </c>
@@ -5395,7 +5421,9 @@
       <c r="A15" s="3">
         <v>10028</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C15" s="2">
         <v>1000206</v>
       </c>
@@ -5413,7 +5441,7 @@
       <c r="A16" s="3">
         <v>10030</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>256</v>
       </c>
       <c r="C16" s="2">
@@ -5433,7 +5461,9 @@
       <c r="A17" s="3">
         <v>10030</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C17" s="2">
         <v>1000217</v>
       </c>
@@ -5451,7 +5481,9 @@
       <c r="A18" s="3">
         <v>10030</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C18" s="2">
         <v>1000218</v>
       </c>
@@ -5469,7 +5501,9 @@
       <c r="A19" s="3">
         <v>10030</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C19" s="2">
         <v>1000219</v>
       </c>
@@ -5487,7 +5521,9 @@
       <c r="A20" s="3">
         <v>10030</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C20" s="2">
         <v>1000220</v>
       </c>
@@ -5505,7 +5541,9 @@
       <c r="A21" s="3">
         <v>10030</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C21" s="2">
         <v>1000221</v>
       </c>
@@ -5523,7 +5561,9 @@
       <c r="A22" s="3">
         <v>10030</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C22" s="2">
         <v>1000222</v>
       </c>
@@ -5541,7 +5581,9 @@
       <c r="A23" s="3">
         <v>10030</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C23" s="2">
         <v>1000223</v>
       </c>
@@ -5559,7 +5601,9 @@
       <c r="A24" s="3">
         <v>10030</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C24" s="2">
         <v>1000224</v>
       </c>
@@ -5577,7 +5621,9 @@
       <c r="A25" s="3">
         <v>10030</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C25" s="2">
         <v>1000225</v>
       </c>
@@ -5595,7 +5641,9 @@
       <c r="A26" s="3">
         <v>10030</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C26" s="2">
         <v>1000226</v>
       </c>
@@ -5613,7 +5661,9 @@
       <c r="A27" s="3">
         <v>10030</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C27" s="2">
         <v>1000227</v>
       </c>
@@ -5631,7 +5681,9 @@
       <c r="A28" s="3">
         <v>10030</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="3" t="s">
+        <v>256</v>
+      </c>
       <c r="C28" s="2">
         <v>1000228</v>
       </c>
@@ -5649,7 +5701,7 @@
       <c r="A29" s="3">
         <v>10032</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="3" t="s">
         <v>257</v>
       </c>
       <c r="C29" s="2">
@@ -5669,7 +5721,9 @@
       <c r="A30" s="3">
         <v>10032</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C30" s="2">
         <v>1000249</v>
       </c>
@@ -5687,7 +5741,9 @@
       <c r="A31" s="3">
         <v>10032</v>
       </c>
-      <c r="B31" s="9"/>
+      <c r="B31" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C31" s="2">
         <v>1000250</v>
       </c>
@@ -5705,7 +5761,9 @@
       <c r="A32" s="3">
         <v>10032</v>
       </c>
-      <c r="B32" s="9"/>
+      <c r="B32" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C32" s="2">
         <v>1000251</v>
       </c>
@@ -5723,7 +5781,9 @@
       <c r="A33" s="3">
         <v>10032</v>
       </c>
-      <c r="B33" s="9"/>
+      <c r="B33" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C33" s="2">
         <v>1000252</v>
       </c>
@@ -5741,7 +5801,9 @@
       <c r="A34" s="3">
         <v>10032</v>
       </c>
-      <c r="B34" s="9"/>
+      <c r="B34" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C34" s="2">
         <v>1000253</v>
       </c>
@@ -5759,7 +5821,9 @@
       <c r="A35" s="3">
         <v>10032</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C35" s="2">
         <v>1000254</v>
       </c>
@@ -5777,7 +5841,9 @@
       <c r="A36" s="3">
         <v>10032</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C36" s="2">
         <v>1000255</v>
       </c>
@@ -5795,7 +5861,9 @@
       <c r="A37" s="3">
         <v>10032</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C37" s="2">
         <v>1000256</v>
       </c>
@@ -5813,7 +5881,9 @@
       <c r="A38" s="3">
         <v>10032</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C38" s="2">
         <v>1000257</v>
       </c>
@@ -5831,7 +5901,9 @@
       <c r="A39" s="3">
         <v>10032</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C39" s="2">
         <v>1000258</v>
       </c>
@@ -5849,7 +5921,9 @@
       <c r="A40" s="3">
         <v>10032</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C40" s="2">
         <v>1000259</v>
       </c>
@@ -5867,7 +5941,9 @@
       <c r="A41" s="3">
         <v>10032</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C41" s="2">
         <v>1000260</v>
       </c>
@@ -5885,7 +5961,9 @@
       <c r="A42" s="3">
         <v>10032</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C42" s="2">
         <v>1000261</v>
       </c>
@@ -5903,7 +5981,9 @@
       <c r="A43" s="3">
         <v>10032</v>
       </c>
-      <c r="B43" s="9"/>
+      <c r="B43" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C43" s="2">
         <v>1000262</v>
       </c>
@@ -5921,7 +6001,9 @@
       <c r="A44" s="3">
         <v>10032</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C44" s="2">
         <v>1000263</v>
       </c>
@@ -5939,7 +6021,9 @@
       <c r="A45" s="3">
         <v>10032</v>
       </c>
-      <c r="B45" s="9"/>
+      <c r="B45" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="C45" s="2">
         <v>1000264</v>
       </c>
@@ -5957,7 +6041,7 @@
       <c r="A46" s="3">
         <v>10034</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C46" s="2">
@@ -5977,7 +6061,9 @@
       <c r="A47" s="3">
         <v>10034</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C47" s="2">
         <v>1000271</v>
       </c>
@@ -5995,7 +6081,9 @@
       <c r="A48" s="3">
         <v>10034</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C48" s="2">
         <v>1000272</v>
       </c>
@@ -6013,7 +6101,9 @@
       <c r="A49" s="3">
         <v>10034</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C49" s="2">
         <v>1000273</v>
       </c>
@@ -6031,7 +6121,9 @@
       <c r="A50" s="3">
         <v>10034</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C50" s="2">
         <v>1000274</v>
       </c>
@@ -6049,7 +6141,9 @@
       <c r="A51" s="3">
         <v>10034</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C51" s="2">
         <v>1000275</v>
       </c>
@@ -6063,17 +6157,19 @@
         <v>50</v>
       </c>
       <c r="J51" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="3">
         <v>10034</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="C52" s="2">
         <v>1000276</v>
       </c>
@@ -6087,7 +6183,7 @@
         <v>51</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J52" s="2">
         <v>310000</v>
@@ -6100,7 +6196,7 @@
       <c r="A53" s="3">
         <v>10036</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="2">
@@ -6116,7 +6212,7 @@
         <v>53</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J53" s="2">
         <v>242</v>
@@ -6129,7 +6225,9 @@
       <c r="A54" s="3">
         <v>10036</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C54" s="2">
         <v>1000287</v>
       </c>
@@ -6147,7 +6245,9 @@
       <c r="A55" s="3">
         <v>10036</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C55" s="2">
         <v>1000288</v>
       </c>
@@ -6165,7 +6265,7 @@
       <c r="A56" s="3">
         <v>10038</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C56" s="2">
@@ -6185,7 +6285,9 @@
       <c r="A57" s="3">
         <v>10038</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C57" s="2">
         <v>1000298</v>
       </c>
@@ -6203,7 +6305,9 @@
       <c r="A58" s="3">
         <v>10038</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C58" s="2">
         <v>1000299</v>
       </c>
@@ -6221,7 +6325,9 @@
       <c r="A59" s="3">
         <v>10038</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C59" s="2">
         <v>1000300</v>
       </c>
@@ -6239,7 +6345,9 @@
       <c r="A60" s="3">
         <v>10038</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C60" s="2">
         <v>1000301</v>
       </c>
@@ -6257,7 +6365,9 @@
       <c r="A61" s="3">
         <v>10038</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C61" s="2">
         <v>1000302</v>
       </c>
@@ -6275,7 +6385,9 @@
       <c r="A62" s="3">
         <v>10038</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C62" s="2">
         <v>1000303</v>
       </c>
@@ -6293,7 +6405,9 @@
       <c r="A63" s="3">
         <v>10038</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C63" s="2">
         <v>1000304</v>
       </c>
@@ -6311,7 +6425,9 @@
       <c r="A64" s="3">
         <v>10038</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C64" s="2">
         <v>1000305</v>
       </c>
@@ -6329,7 +6445,9 @@
       <c r="A65" s="3">
         <v>10038</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C65" s="2">
         <v>1000306</v>
       </c>
@@ -6347,7 +6465,9 @@
       <c r="A66" s="3">
         <v>10038</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C66" s="2">
         <v>1000307</v>
       </c>
@@ -6365,7 +6485,9 @@
       <c r="A67" s="3">
         <v>10038</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="C67" s="2">
         <v>1000308</v>
       </c>
@@ -6383,7 +6505,7 @@
       <c r="A68" s="3">
         <v>10040</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C68" s="2">
@@ -6403,7 +6525,9 @@
       <c r="A69" s="3">
         <v>10040</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C69" s="2">
         <v>1000327</v>
       </c>
@@ -6421,7 +6545,9 @@
       <c r="A70" s="3">
         <v>10040</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C70" s="2">
         <v>1000328</v>
       </c>
@@ -6439,7 +6565,9 @@
       <c r="A71" s="3">
         <v>10040</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C71" s="2">
         <v>1000329</v>
       </c>
@@ -6457,7 +6585,9 @@
       <c r="A72" s="3">
         <v>10040</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C72" s="2">
         <v>1000330</v>
       </c>
@@ -6475,7 +6605,9 @@
       <c r="A73" s="3">
         <v>10040</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C73" s="2">
         <v>1000331</v>
       </c>
@@ -6493,7 +6625,9 @@
       <c r="A74" s="3">
         <v>10040</v>
       </c>
-      <c r="B74" s="9"/>
+      <c r="B74" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C74" s="2">
         <v>1000332</v>
       </c>
@@ -6511,7 +6645,9 @@
       <c r="A75" s="3">
         <v>10040</v>
       </c>
-      <c r="B75" s="9"/>
+      <c r="B75" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C75" s="2">
         <v>1000333</v>
       </c>
@@ -6529,7 +6665,9 @@
       <c r="A76" s="3">
         <v>10040</v>
       </c>
-      <c r="B76" s="9"/>
+      <c r="B76" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C76" s="2">
         <v>1000334</v>
       </c>
@@ -6547,7 +6685,9 @@
       <c r="A77" s="3">
         <v>10040</v>
       </c>
-      <c r="B77" s="9"/>
+      <c r="B77" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C77" s="2">
         <v>1000335</v>
       </c>
@@ -6565,7 +6705,9 @@
       <c r="A78" s="3">
         <v>10040</v>
       </c>
-      <c r="B78" s="9"/>
+      <c r="B78" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C78" s="2">
         <v>1000336</v>
       </c>
@@ -6583,7 +6725,9 @@
       <c r="A79" s="3">
         <v>10040</v>
       </c>
-      <c r="B79" s="9"/>
+      <c r="B79" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C79" s="2">
         <v>1000337</v>
       </c>
@@ -6601,7 +6745,9 @@
       <c r="A80" s="3">
         <v>10040</v>
       </c>
-      <c r="B80" s="9"/>
+      <c r="B80" s="3" t="s">
+        <v>260</v>
+      </c>
       <c r="C80" s="2">
         <v>1000424</v>
       </c>
@@ -6619,7 +6765,7 @@
       <c r="A81" s="3">
         <v>10042</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="3" t="s">
         <v>261</v>
       </c>
       <c r="C81" s="2">
@@ -6639,7 +6785,9 @@
       <c r="A82" s="3">
         <v>10042</v>
       </c>
-      <c r="B82" s="9"/>
+      <c r="B82" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C82" s="2">
         <v>1000345</v>
       </c>
@@ -6657,7 +6805,9 @@
       <c r="A83" s="3">
         <v>10042</v>
       </c>
-      <c r="B83" s="9"/>
+      <c r="B83" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C83" s="2">
         <v>1000346</v>
       </c>
@@ -6675,7 +6825,9 @@
       <c r="A84" s="3">
         <v>10042</v>
       </c>
-      <c r="B84" s="9"/>
+      <c r="B84" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C84" s="2">
         <v>1000347</v>
       </c>
@@ -6693,7 +6845,9 @@
       <c r="A85" s="3">
         <v>10042</v>
       </c>
-      <c r="B85" s="9"/>
+      <c r="B85" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C85" s="2">
         <v>1000348</v>
       </c>
@@ -6711,7 +6865,9 @@
       <c r="A86" s="3">
         <v>10042</v>
       </c>
-      <c r="B86" s="9"/>
+      <c r="B86" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C86" s="2">
         <v>1000349</v>
       </c>
@@ -6729,7 +6885,9 @@
       <c r="A87" s="3">
         <v>10042</v>
       </c>
-      <c r="B87" s="9"/>
+      <c r="B87" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C87" s="2">
         <v>1000350</v>
       </c>
@@ -6747,7 +6905,9 @@
       <c r="A88" s="3">
         <v>10042</v>
       </c>
-      <c r="B88" s="9"/>
+      <c r="B88" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C88" s="2">
         <v>1000351</v>
       </c>
@@ -6765,7 +6925,9 @@
       <c r="A89" s="3">
         <v>10042</v>
       </c>
-      <c r="B89" s="9"/>
+      <c r="B89" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C89" s="2">
         <v>1000352</v>
       </c>
@@ -6783,7 +6945,9 @@
       <c r="A90" s="3">
         <v>10042</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C90" s="2">
         <v>1000353</v>
       </c>
@@ -6801,7 +6965,9 @@
       <c r="A91" s="3">
         <v>10042</v>
       </c>
-      <c r="B91" s="9"/>
+      <c r="B91" s="3" t="s">
+        <v>261</v>
+      </c>
       <c r="C91" s="2">
         <v>1000425</v>
       </c>
@@ -6819,7 +6985,7 @@
       <c r="A92" s="3">
         <v>10044</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="3" t="s">
         <v>262</v>
       </c>
       <c r="C92" s="2">
@@ -6839,7 +7005,9 @@
       <c r="A93" s="3">
         <v>10044</v>
       </c>
-      <c r="B93" s="9"/>
+      <c r="B93" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C93" s="2">
         <v>1000373</v>
       </c>
@@ -6857,7 +7025,9 @@
       <c r="A94" s="3">
         <v>10044</v>
       </c>
-      <c r="B94" s="9"/>
+      <c r="B94" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C94" s="2">
         <v>1000374</v>
       </c>
@@ -6875,7 +7045,9 @@
       <c r="A95" s="3">
         <v>10044</v>
       </c>
-      <c r="B95" s="9"/>
+      <c r="B95" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C95" s="2">
         <v>1000375</v>
       </c>
@@ -6893,7 +7065,9 @@
       <c r="A96" s="3">
         <v>10044</v>
       </c>
-      <c r="B96" s="9"/>
+      <c r="B96" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C96" s="2">
         <v>1000376</v>
       </c>
@@ -6911,7 +7085,9 @@
       <c r="A97" s="3">
         <v>10044</v>
       </c>
-      <c r="B97" s="9"/>
+      <c r="B97" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C97" s="2">
         <v>1000377</v>
       </c>
@@ -6929,7 +7105,9 @@
       <c r="A98" s="3">
         <v>10044</v>
       </c>
-      <c r="B98" s="9"/>
+      <c r="B98" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C98" s="2">
         <v>1000378</v>
       </c>
@@ -6947,7 +7125,9 @@
       <c r="A99" s="3">
         <v>10044</v>
       </c>
-      <c r="B99" s="9"/>
+      <c r="B99" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C99" s="2">
         <v>1000379</v>
       </c>
@@ -6965,7 +7145,9 @@
       <c r="A100" s="3">
         <v>10044</v>
       </c>
-      <c r="B100" s="9"/>
+      <c r="B100" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C100" s="2">
         <v>1000380</v>
       </c>
@@ -6983,7 +7165,9 @@
       <c r="A101" s="3">
         <v>10044</v>
       </c>
-      <c r="B101" s="9"/>
+      <c r="B101" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C101" s="2">
         <v>1000381</v>
       </c>
@@ -7001,7 +7185,9 @@
       <c r="A102" s="3">
         <v>10044</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C102" s="2">
         <v>1000382</v>
       </c>
@@ -7019,7 +7205,9 @@
       <c r="A103" s="3">
         <v>10044</v>
       </c>
-      <c r="B103" s="9"/>
+      <c r="B103" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C103" s="2">
         <v>1000383</v>
       </c>
@@ -7037,7 +7225,9 @@
       <c r="A104" s="3">
         <v>10044</v>
       </c>
-      <c r="B104" s="9"/>
+      <c r="B104" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C104" s="2">
         <v>1000384</v>
       </c>
@@ -7055,7 +7245,9 @@
       <c r="A105" s="3">
         <v>10044</v>
       </c>
-      <c r="B105" s="9"/>
+      <c r="B105" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="C105" s="2">
         <v>1000385</v>
       </c>
@@ -7073,7 +7265,7 @@
       <c r="A106" s="3">
         <v>10046</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="3" t="s">
         <v>263</v>
       </c>
       <c r="C106" s="2">
@@ -7093,7 +7285,9 @@
       <c r="A107" s="3">
         <v>10046</v>
       </c>
-      <c r="B107" s="9"/>
+      <c r="B107" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="C107" s="2">
         <v>1000408</v>
       </c>
@@ -7111,7 +7305,9 @@
       <c r="A108" s="3">
         <v>10046</v>
       </c>
-      <c r="B108" s="9"/>
+      <c r="B108" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="C108" s="2">
         <v>1000409</v>
       </c>
@@ -7129,7 +7325,9 @@
       <c r="A109" s="3">
         <v>10046</v>
       </c>
-      <c r="B109" s="9"/>
+      <c r="B109" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="C109" s="2">
         <v>1000410</v>
       </c>
@@ -7147,7 +7345,9 @@
       <c r="A110" s="3">
         <v>10046</v>
       </c>
-      <c r="B110" s="9"/>
+      <c r="B110" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="C110" s="2">
         <v>1000411</v>
       </c>
@@ -7165,7 +7365,9 @@
       <c r="A111" s="3">
         <v>10046</v>
       </c>
-      <c r="B111" s="9"/>
+      <c r="B111" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="C111" s="2">
         <v>1000412</v>
       </c>
@@ -7183,7 +7385,9 @@
       <c r="A112" s="3">
         <v>10046</v>
       </c>
-      <c r="B112" s="9"/>
+      <c r="B112" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="C112" s="2">
         <v>1000413</v>
       </c>
@@ -7201,7 +7405,7 @@
       <c r="A113" s="3">
         <v>10027</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C113" s="2">
@@ -7221,7 +7425,9 @@
       <c r="A114" s="3">
         <v>10027</v>
       </c>
-      <c r="B114" s="9"/>
+      <c r="B114" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C114" s="2">
         <v>1000192</v>
       </c>
@@ -7239,7 +7445,9 @@
       <c r="A115" s="3">
         <v>10027</v>
       </c>
-      <c r="B115" s="9"/>
+      <c r="B115" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C115" s="2">
         <v>1000193</v>
       </c>
@@ -7257,7 +7465,9 @@
       <c r="A116" s="3">
         <v>10027</v>
       </c>
-      <c r="B116" s="9"/>
+      <c r="B116" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C116" s="2">
         <v>1000194</v>
       </c>
@@ -7275,7 +7485,9 @@
       <c r="A117" s="3">
         <v>10027</v>
       </c>
-      <c r="B117" s="9"/>
+      <c r="B117" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C117" s="2">
         <v>1000195</v>
       </c>
@@ -7293,7 +7505,9 @@
       <c r="A118" s="3">
         <v>10027</v>
       </c>
-      <c r="B118" s="9"/>
+      <c r="B118" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C118" s="2">
         <v>1000196</v>
       </c>
@@ -7311,7 +7525,9 @@
       <c r="A119" s="3">
         <v>10027</v>
       </c>
-      <c r="B119" s="9"/>
+      <c r="B119" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C119" s="2">
         <v>1000197</v>
       </c>
@@ -7329,7 +7545,9 @@
       <c r="A120" s="3">
         <v>10027</v>
       </c>
-      <c r="B120" s="9"/>
+      <c r="B120" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C120" s="2">
         <v>1000198</v>
       </c>
@@ -7347,7 +7565,9 @@
       <c r="A121" s="3">
         <v>10027</v>
       </c>
-      <c r="B121" s="9"/>
+      <c r="B121" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C121" s="2">
         <v>1000199</v>
       </c>
@@ -7365,7 +7585,9 @@
       <c r="A122" s="3">
         <v>10027</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C122" s="2">
         <v>1000200</v>
       </c>
@@ -7383,7 +7605,9 @@
       <c r="A123" s="3">
         <v>10027</v>
       </c>
-      <c r="B123" s="9"/>
+      <c r="B123" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="C123" s="2">
         <v>1000416</v>
       </c>
@@ -7401,7 +7625,7 @@
       <c r="A124" s="3">
         <v>10029</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C124" s="2">
@@ -7421,7 +7645,9 @@
       <c r="A125" s="3">
         <v>10029</v>
       </c>
-      <c r="B125" s="9"/>
+      <c r="B125" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C125" s="2">
         <v>1000208</v>
       </c>
@@ -7439,7 +7665,9 @@
       <c r="A126" s="3">
         <v>10029</v>
       </c>
-      <c r="B126" s="9"/>
+      <c r="B126" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C126" s="2">
         <v>1000209</v>
       </c>
@@ -7457,7 +7685,9 @@
       <c r="A127" s="3">
         <v>10029</v>
       </c>
-      <c r="B127" s="9"/>
+      <c r="B127" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C127" s="2">
         <v>1000210</v>
       </c>
@@ -7475,7 +7705,9 @@
       <c r="A128" s="3">
         <v>10029</v>
       </c>
-      <c r="B128" s="9"/>
+      <c r="B128" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C128" s="2">
         <v>1000211</v>
       </c>
@@ -7493,7 +7725,9 @@
       <c r="A129" s="3">
         <v>10029</v>
       </c>
-      <c r="B129" s="9"/>
+      <c r="B129" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C129" s="2">
         <v>1000212</v>
       </c>
@@ -7511,7 +7745,9 @@
       <c r="A130" s="3">
         <v>10029</v>
       </c>
-      <c r="B130" s="9"/>
+      <c r="B130" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C130" s="2">
         <v>1000213</v>
       </c>
@@ -7529,7 +7765,9 @@
       <c r="A131" s="3">
         <v>10029</v>
       </c>
-      <c r="B131" s="9"/>
+      <c r="B131" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C131" s="2">
         <v>1000214</v>
       </c>
@@ -7547,7 +7785,9 @@
       <c r="A132" s="3">
         <v>10029</v>
       </c>
-      <c r="B132" s="9"/>
+      <c r="B132" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="C132" s="2">
         <v>1000215</v>
       </c>
@@ -7565,7 +7805,7 @@
       <c r="A133" s="3">
         <v>10031</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="2">
@@ -7585,7 +7825,9 @@
       <c r="A134" s="3">
         <v>10031</v>
       </c>
-      <c r="B134" s="9"/>
+      <c r="B134" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C134" s="2">
         <v>1000230</v>
       </c>
@@ -7603,7 +7845,9 @@
       <c r="A135" s="3">
         <v>10031</v>
       </c>
-      <c r="B135" s="9"/>
+      <c r="B135" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C135" s="2">
         <v>1000231</v>
       </c>
@@ -7621,7 +7865,9 @@
       <c r="A136" s="3">
         <v>10031</v>
       </c>
-      <c r="B136" s="9"/>
+      <c r="B136" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C136" s="2">
         <v>1000232</v>
       </c>
@@ -7639,7 +7885,9 @@
       <c r="A137" s="3">
         <v>10031</v>
       </c>
-      <c r="B137" s="9"/>
+      <c r="B137" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C137" s="2">
         <v>1000233</v>
       </c>
@@ -7657,7 +7905,9 @@
       <c r="A138" s="3">
         <v>10031</v>
       </c>
-      <c r="B138" s="9"/>
+      <c r="B138" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C138" s="2">
         <v>1000234</v>
       </c>
@@ -7675,7 +7925,9 @@
       <c r="A139" s="3">
         <v>10031</v>
       </c>
-      <c r="B139" s="9"/>
+      <c r="B139" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C139" s="2">
         <v>1000235</v>
       </c>
@@ -7693,7 +7945,9 @@
       <c r="A140" s="3">
         <v>10031</v>
       </c>
-      <c r="B140" s="9"/>
+      <c r="B140" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C140" s="2">
         <v>1000236</v>
       </c>
@@ -7711,7 +7965,9 @@
       <c r="A141" s="3">
         <v>10031</v>
       </c>
-      <c r="B141" s="9"/>
+      <c r="B141" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C141" s="2">
         <v>1000237</v>
       </c>
@@ -7729,7 +7985,9 @@
       <c r="A142" s="3">
         <v>10031</v>
       </c>
-      <c r="B142" s="9"/>
+      <c r="B142" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C142" s="2">
         <v>1000238</v>
       </c>
@@ -7747,7 +8005,9 @@
       <c r="A143" s="3">
         <v>10031</v>
       </c>
-      <c r="B143" s="9"/>
+      <c r="B143" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C143" s="2">
         <v>1000239</v>
       </c>
@@ -7765,7 +8025,9 @@
       <c r="A144" s="3">
         <v>10031</v>
       </c>
-      <c r="B144" s="9"/>
+      <c r="B144" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C144" s="2">
         <v>1000240</v>
       </c>
@@ -7783,7 +8045,9 @@
       <c r="A145" s="3">
         <v>10031</v>
       </c>
-      <c r="B145" s="9"/>
+      <c r="B145" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C145" s="2">
         <v>1000241</v>
       </c>
@@ -7801,7 +8065,9 @@
       <c r="A146" s="3">
         <v>10031</v>
       </c>
-      <c r="B146" s="9"/>
+      <c r="B146" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C146" s="2">
         <v>1000242</v>
       </c>
@@ -7819,7 +8085,9 @@
       <c r="A147" s="3">
         <v>10031</v>
       </c>
-      <c r="B147" s="9"/>
+      <c r="B147" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C147" s="2">
         <v>1000243</v>
       </c>
@@ -7837,7 +8105,9 @@
       <c r="A148" s="3">
         <v>10031</v>
       </c>
-      <c r="B148" s="9"/>
+      <c r="B148" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C148" s="2">
         <v>1000244</v>
       </c>
@@ -7855,7 +8125,9 @@
       <c r="A149" s="3">
         <v>10031</v>
       </c>
-      <c r="B149" s="9"/>
+      <c r="B149" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C149" s="2">
         <v>1000245</v>
       </c>
@@ -7873,7 +8145,9 @@
       <c r="A150" s="3">
         <v>10031</v>
       </c>
-      <c r="B150" s="9"/>
+      <c r="B150" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C150" s="2">
         <v>1000246</v>
       </c>
@@ -7891,7 +8165,9 @@
       <c r="A151" s="3">
         <v>10031</v>
       </c>
-      <c r="B151" s="9"/>
+      <c r="B151" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C151" s="2">
         <v>1000247</v>
       </c>
@@ -7909,7 +8185,9 @@
       <c r="A152" s="3">
         <v>10031</v>
       </c>
-      <c r="B152" s="9"/>
+      <c r="B152" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C152" s="2">
         <v>1000417</v>
       </c>
@@ -7927,7 +8205,9 @@
       <c r="A153" s="3">
         <v>10031</v>
       </c>
-      <c r="B153" s="9"/>
+      <c r="B153" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C153" s="2">
         <v>1000418</v>
       </c>
@@ -7945,7 +8225,9 @@
       <c r="A154" s="3">
         <v>10031</v>
       </c>
-      <c r="B154" s="9"/>
+      <c r="B154" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C154" s="2">
         <v>1000419</v>
       </c>
@@ -7963,7 +8245,9 @@
       <c r="A155" s="3">
         <v>10031</v>
       </c>
-      <c r="B155" s="9"/>
+      <c r="B155" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C155" s="2">
         <v>1000420</v>
       </c>
@@ -7981,7 +8265,9 @@
       <c r="A156" s="3">
         <v>10031</v>
       </c>
-      <c r="B156" s="9"/>
+      <c r="B156" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C156" s="2">
         <v>1000421</v>
       </c>
@@ -7999,7 +8285,9 @@
       <c r="A157" s="3">
         <v>10031</v>
       </c>
-      <c r="B157" s="9"/>
+      <c r="B157" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C157" s="2">
         <v>1000422</v>
       </c>
@@ -8017,7 +8305,9 @@
       <c r="A158" s="3">
         <v>10031</v>
       </c>
-      <c r="B158" s="9"/>
+      <c r="B158" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="C158" s="2">
         <v>1000423</v>
       </c>
@@ -8035,7 +8325,7 @@
       <c r="A159" s="3">
         <v>10033</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C159" s="2">
@@ -8055,7 +8345,9 @@
       <c r="A160" s="3">
         <v>10033</v>
       </c>
-      <c r="B160" s="9"/>
+      <c r="B160" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="C160" s="2">
         <v>1000266</v>
       </c>
@@ -8073,7 +8365,9 @@
       <c r="A161" s="3">
         <v>10033</v>
       </c>
-      <c r="B161" s="9"/>
+      <c r="B161" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="C161" s="2">
         <v>1000267</v>
       </c>
@@ -8091,7 +8385,9 @@
       <c r="A162" s="3">
         <v>10033</v>
       </c>
-      <c r="B162" s="9"/>
+      <c r="B162" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="C162" s="2">
         <v>1000268</v>
       </c>
@@ -8109,7 +8405,9 @@
       <c r="A163" s="3">
         <v>10033</v>
       </c>
-      <c r="B163" s="9"/>
+      <c r="B163" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="C163" s="2">
         <v>1000269</v>
       </c>
@@ -8127,7 +8425,7 @@
       <c r="A164" s="3">
         <v>10035</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C164" s="2">
@@ -8147,7 +8445,9 @@
       <c r="A165" s="3">
         <v>10035</v>
       </c>
-      <c r="B165" s="9"/>
+      <c r="B165" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C165" s="2">
         <v>1000278</v>
       </c>
@@ -8165,7 +8465,9 @@
       <c r="A166" s="3">
         <v>10035</v>
       </c>
-      <c r="B166" s="9"/>
+      <c r="B166" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C166" s="2">
         <v>1000279</v>
       </c>
@@ -8183,7 +8485,9 @@
       <c r="A167" s="3">
         <v>10035</v>
       </c>
-      <c r="B167" s="9"/>
+      <c r="B167" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C167" s="2">
         <v>1000280</v>
       </c>
@@ -8201,7 +8505,9 @@
       <c r="A168" s="3">
         <v>10035</v>
       </c>
-      <c r="B168" s="9"/>
+      <c r="B168" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C168" s="2">
         <v>1000281</v>
       </c>
@@ -8219,7 +8525,9 @@
       <c r="A169" s="3">
         <v>10035</v>
       </c>
-      <c r="B169" s="9"/>
+      <c r="B169" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C169" s="2">
         <v>1000282</v>
       </c>
@@ -8237,7 +8545,9 @@
       <c r="A170" s="3">
         <v>10035</v>
       </c>
-      <c r="B170" s="9"/>
+      <c r="B170" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C170" s="2">
         <v>1000283</v>
       </c>
@@ -8255,7 +8565,9 @@
       <c r="A171" s="3">
         <v>10035</v>
       </c>
-      <c r="B171" s="9"/>
+      <c r="B171" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C171" s="2">
         <v>1000284</v>
       </c>
@@ -8273,7 +8585,9 @@
       <c r="A172" s="3">
         <v>10035</v>
       </c>
-      <c r="B172" s="9"/>
+      <c r="B172" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C172" s="2">
         <v>1000285</v>
       </c>
@@ -8291,7 +8605,7 @@
       <c r="A173" s="3">
         <v>10037</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="3" t="s">
         <v>178</v>
       </c>
       <c r="C173" s="2">
@@ -8311,7 +8625,9 @@
       <c r="A174" s="3">
         <v>10037</v>
       </c>
-      <c r="B174" s="9"/>
+      <c r="B174" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="C174" s="2">
         <v>1000290</v>
       </c>
@@ -8329,7 +8645,9 @@
       <c r="A175" s="3">
         <v>10037</v>
       </c>
-      <c r="B175" s="9"/>
+      <c r="B175" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="C175" s="2">
         <v>1000291</v>
       </c>
@@ -8347,7 +8665,9 @@
       <c r="A176" s="3">
         <v>10037</v>
       </c>
-      <c r="B176" s="9"/>
+      <c r="B176" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="C176" s="2">
         <v>1000292</v>
       </c>
@@ -8365,7 +8685,9 @@
       <c r="A177" s="3">
         <v>10037</v>
       </c>
-      <c r="B177" s="9"/>
+      <c r="B177" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="C177" s="2">
         <v>1000293</v>
       </c>
@@ -8383,7 +8705,9 @@
       <c r="A178" s="3">
         <v>10037</v>
       </c>
-      <c r="B178" s="9"/>
+      <c r="B178" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="C178" s="2">
         <v>1000294</v>
       </c>
@@ -8401,7 +8725,9 @@
       <c r="A179" s="3">
         <v>10037</v>
       </c>
-      <c r="B179" s="9"/>
+      <c r="B179" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="C179" s="2">
         <v>1000295</v>
       </c>
@@ -8419,7 +8745,9 @@
       <c r="A180" s="3">
         <v>10037</v>
       </c>
-      <c r="B180" s="9"/>
+      <c r="B180" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="C180" s="2">
         <v>1000296</v>
       </c>
@@ -8437,7 +8765,7 @@
       <c r="A181" s="3">
         <v>10039</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="3" t="s">
         <v>187</v>
       </c>
       <c r="C181" s="2">
@@ -8457,7 +8785,9 @@
       <c r="A182" s="3">
         <v>10039</v>
       </c>
-      <c r="B182" s="9"/>
+      <c r="B182" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C182" s="2">
         <v>1000310</v>
       </c>
@@ -8475,7 +8805,9 @@
       <c r="A183" s="3">
         <v>10039</v>
       </c>
-      <c r="B183" s="9"/>
+      <c r="B183" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C183" s="2">
         <v>1000311</v>
       </c>
@@ -8493,7 +8825,9 @@
       <c r="A184" s="3">
         <v>10039</v>
       </c>
-      <c r="B184" s="9"/>
+      <c r="B184" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C184" s="2">
         <v>1000312</v>
       </c>
@@ -8511,7 +8845,9 @@
       <c r="A185" s="3">
         <v>10039</v>
       </c>
-      <c r="B185" s="9"/>
+      <c r="B185" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C185" s="2">
         <v>1000313</v>
       </c>
@@ -8529,7 +8865,9 @@
       <c r="A186" s="3">
         <v>10039</v>
       </c>
-      <c r="B186" s="9"/>
+      <c r="B186" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C186" s="2">
         <v>1000314</v>
       </c>
@@ -8547,7 +8885,9 @@
       <c r="A187" s="3">
         <v>10039</v>
       </c>
-      <c r="B187" s="9"/>
+      <c r="B187" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C187" s="2">
         <v>1000315</v>
       </c>
@@ -8565,7 +8905,9 @@
       <c r="A188" s="3">
         <v>10039</v>
       </c>
-      <c r="B188" s="9"/>
+      <c r="B188" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C188" s="2">
         <v>1000316</v>
       </c>
@@ -8583,7 +8925,9 @@
       <c r="A189" s="3">
         <v>10039</v>
       </c>
-      <c r="B189" s="9"/>
+      <c r="B189" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C189" s="2">
         <v>1000317</v>
       </c>
@@ -8601,7 +8945,9 @@
       <c r="A190" s="3">
         <v>10039</v>
       </c>
-      <c r="B190" s="9"/>
+      <c r="B190" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C190" s="2">
         <v>1000318</v>
       </c>
@@ -8619,7 +8965,9 @@
       <c r="A191" s="3">
         <v>10039</v>
       </c>
-      <c r="B191" s="9"/>
+      <c r="B191" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C191" s="2">
         <v>1000319</v>
       </c>
@@ -8637,7 +8985,9 @@
       <c r="A192" s="3">
         <v>10039</v>
       </c>
-      <c r="B192" s="9"/>
+      <c r="B192" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C192" s="2">
         <v>1000320</v>
       </c>
@@ -8655,7 +9005,9 @@
       <c r="A193" s="3">
         <v>10039</v>
       </c>
-      <c r="B193" s="9"/>
+      <c r="B193" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C193" s="2">
         <v>1000321</v>
       </c>
@@ -8673,7 +9025,9 @@
       <c r="A194" s="3">
         <v>10039</v>
       </c>
-      <c r="B194" s="9"/>
+      <c r="B194" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C194" s="2">
         <v>1000322</v>
       </c>
@@ -8691,7 +9045,9 @@
       <c r="A195" s="3">
         <v>10039</v>
       </c>
-      <c r="B195" s="9"/>
+      <c r="B195" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C195" s="2">
         <v>1000323</v>
       </c>
@@ -8709,7 +9065,9 @@
       <c r="A196" s="3">
         <v>10039</v>
       </c>
-      <c r="B196" s="9"/>
+      <c r="B196" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C196" s="2">
         <v>1000324</v>
       </c>
@@ -8727,7 +9085,9 @@
       <c r="A197" s="3">
         <v>10039</v>
       </c>
-      <c r="B197" s="9"/>
+      <c r="B197" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C197" s="2">
         <v>1000325</v>
       </c>
@@ -8745,7 +9105,7 @@
       <c r="A198" s="3">
         <v>10041</v>
       </c>
-      <c r="B198" s="9" t="s">
+      <c r="B198" s="3" t="s">
         <v>205</v>
       </c>
       <c r="C198" s="2">
@@ -8765,7 +9125,9 @@
       <c r="A199" s="3">
         <v>10041</v>
       </c>
-      <c r="B199" s="9"/>
+      <c r="B199" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C199" s="2">
         <v>1000339</v>
       </c>
@@ -8783,7 +9145,9 @@
       <c r="A200" s="3">
         <v>10041</v>
       </c>
-      <c r="B200" s="9"/>
+      <c r="B200" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C200" s="2">
         <v>1000340</v>
       </c>
@@ -8801,7 +9165,9 @@
       <c r="A201" s="3">
         <v>10041</v>
       </c>
-      <c r="B201" s="9"/>
+      <c r="B201" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C201" s="2">
         <v>1000341</v>
       </c>
@@ -8819,7 +9185,9 @@
       <c r="A202" s="3">
         <v>10041</v>
       </c>
-      <c r="B202" s="9"/>
+      <c r="B202" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C202" s="2">
         <v>1000342</v>
       </c>
@@ -8837,7 +9205,9 @@
       <c r="A203" s="3">
         <v>10041</v>
       </c>
-      <c r="B203" s="9"/>
+      <c r="B203" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C203" s="2">
         <v>1000343</v>
       </c>
@@ -8855,7 +9225,7 @@
       <c r="A204" s="3">
         <v>10043</v>
       </c>
-      <c r="B204" s="9" t="s">
+      <c r="B204" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C204" s="2">
@@ -8875,7 +9245,9 @@
       <c r="A205" s="3">
         <v>10043</v>
       </c>
-      <c r="B205" s="9"/>
+      <c r="B205" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C205" s="2">
         <v>1000355</v>
       </c>
@@ -8893,7 +9265,9 @@
       <c r="A206" s="3">
         <v>10043</v>
       </c>
-      <c r="B206" s="9"/>
+      <c r="B206" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C206" s="2">
         <v>1000356</v>
       </c>
@@ -8911,7 +9285,9 @@
       <c r="A207" s="3">
         <v>10043</v>
       </c>
-      <c r="B207" s="9"/>
+      <c r="B207" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C207" s="2">
         <v>1000357</v>
       </c>
@@ -8929,7 +9305,9 @@
       <c r="A208" s="3">
         <v>10043</v>
       </c>
-      <c r="B208" s="9"/>
+      <c r="B208" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C208" s="2">
         <v>1000358</v>
       </c>
@@ -8947,7 +9325,9 @@
       <c r="A209" s="3">
         <v>10043</v>
       </c>
-      <c r="B209" s="9"/>
+      <c r="B209" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C209" s="2">
         <v>1000359</v>
       </c>
@@ -8965,7 +9345,9 @@
       <c r="A210" s="3">
         <v>10043</v>
       </c>
-      <c r="B210" s="9"/>
+      <c r="B210" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C210" s="2">
         <v>1000360</v>
       </c>
@@ -8983,7 +9365,9 @@
       <c r="A211" s="3">
         <v>10043</v>
       </c>
-      <c r="B211" s="9"/>
+      <c r="B211" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C211" s="2">
         <v>1000361</v>
       </c>
@@ -9001,7 +9385,9 @@
       <c r="A212" s="3">
         <v>10043</v>
       </c>
-      <c r="B212" s="9"/>
+      <c r="B212" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C212" s="2">
         <v>1000362</v>
       </c>
@@ -9019,7 +9405,9 @@
       <c r="A213" s="3">
         <v>10043</v>
       </c>
-      <c r="B213" s="9"/>
+      <c r="B213" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C213" s="2">
         <v>1000363</v>
       </c>
@@ -9037,7 +9425,9 @@
       <c r="A214" s="3">
         <v>10043</v>
       </c>
-      <c r="B214" s="9"/>
+      <c r="B214" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C214" s="2">
         <v>1000364</v>
       </c>
@@ -9055,7 +9445,9 @@
       <c r="A215" s="3">
         <v>10043</v>
       </c>
-      <c r="B215" s="9"/>
+      <c r="B215" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C215" s="2">
         <v>1000365</v>
       </c>
@@ -9073,7 +9465,9 @@
       <c r="A216" s="3">
         <v>10043</v>
       </c>
-      <c r="B216" s="9"/>
+      <c r="B216" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C216" s="2">
         <v>1000366</v>
       </c>
@@ -9091,7 +9485,9 @@
       <c r="A217" s="3">
         <v>10043</v>
       </c>
-      <c r="B217" s="9"/>
+      <c r="B217" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C217" s="2">
         <v>1000367</v>
       </c>
@@ -9109,7 +9505,9 @@
       <c r="A218" s="3">
         <v>10043</v>
       </c>
-      <c r="B218" s="9"/>
+      <c r="B218" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C218" s="2">
         <v>1000368</v>
       </c>
@@ -9127,7 +9525,9 @@
       <c r="A219" s="3">
         <v>10043</v>
       </c>
-      <c r="B219" s="9"/>
+      <c r="B219" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C219" s="2">
         <v>1000369</v>
       </c>
@@ -9145,7 +9545,9 @@
       <c r="A220" s="3">
         <v>10043</v>
       </c>
-      <c r="B220" s="9"/>
+      <c r="B220" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C220" s="2">
         <v>1000370</v>
       </c>
@@ -9163,7 +9565,9 @@
       <c r="A221" s="3">
         <v>10043</v>
       </c>
-      <c r="B221" s="9"/>
+      <c r="B221" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="C221" s="2">
         <v>1000371</v>
       </c>
@@ -9181,7 +9585,7 @@
       <c r="A222" s="3">
         <v>10045</v>
       </c>
-      <c r="B222" s="9" t="s">
+      <c r="B222" s="3" t="s">
         <v>231</v>
       </c>
       <c r="C222" s="2">
@@ -9201,7 +9605,9 @@
       <c r="A223" s="3">
         <v>10045</v>
       </c>
-      <c r="B223" s="9"/>
+      <c r="B223" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C223" s="2">
         <v>1000387</v>
       </c>
@@ -9219,7 +9625,9 @@
       <c r="A224" s="3">
         <v>10045</v>
       </c>
-      <c r="B224" s="9"/>
+      <c r="B224" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C224" s="2">
         <v>1000388</v>
       </c>
@@ -9237,7 +9645,9 @@
       <c r="A225" s="3">
         <v>10045</v>
       </c>
-      <c r="B225" s="9"/>
+      <c r="B225" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C225" s="2">
         <v>1000389</v>
       </c>
@@ -9255,7 +9665,9 @@
       <c r="A226" s="3">
         <v>10045</v>
       </c>
-      <c r="B226" s="9"/>
+      <c r="B226" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C226" s="2">
         <v>1000390</v>
       </c>
@@ -9273,7 +9685,9 @@
       <c r="A227" s="3">
         <v>10045</v>
       </c>
-      <c r="B227" s="9"/>
+      <c r="B227" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C227" s="2">
         <v>1000391</v>
       </c>
@@ -9291,7 +9705,9 @@
       <c r="A228" s="3">
         <v>10045</v>
       </c>
-      <c r="B228" s="9"/>
+      <c r="B228" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C228" s="2">
         <v>1000392</v>
       </c>
@@ -9309,7 +9725,9 @@
       <c r="A229" s="3">
         <v>10045</v>
       </c>
-      <c r="B229" s="9"/>
+      <c r="B229" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C229" s="2">
         <v>1000393</v>
       </c>
@@ -9327,7 +9745,9 @@
       <c r="A230" s="3">
         <v>10045</v>
       </c>
-      <c r="B230" s="9"/>
+      <c r="B230" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C230" s="2">
         <v>1000394</v>
       </c>
@@ -9345,7 +9765,9 @@
       <c r="A231" s="3">
         <v>10045</v>
       </c>
-      <c r="B231" s="9"/>
+      <c r="B231" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C231" s="2">
         <v>1000395</v>
       </c>
@@ -9363,7 +9785,9 @@
       <c r="A232" s="3">
         <v>10045</v>
       </c>
-      <c r="B232" s="9"/>
+      <c r="B232" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C232" s="2">
         <v>1000396</v>
       </c>
@@ -9381,7 +9805,9 @@
       <c r="A233" s="3">
         <v>10045</v>
       </c>
-      <c r="B233" s="9"/>
+      <c r="B233" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C233" s="2">
         <v>1000397</v>
       </c>
@@ -9399,7 +9825,9 @@
       <c r="A234" s="3">
         <v>10045</v>
       </c>
-      <c r="B234" s="9"/>
+      <c r="B234" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C234" s="2">
         <v>1000398</v>
       </c>
@@ -9417,7 +9845,9 @@
       <c r="A235" s="3">
         <v>10045</v>
       </c>
-      <c r="B235" s="9"/>
+      <c r="B235" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C235" s="2">
         <v>1000399</v>
       </c>
@@ -9435,7 +9865,9 @@
       <c r="A236" s="3">
         <v>10045</v>
       </c>
-      <c r="B236" s="9"/>
+      <c r="B236" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C236" s="2">
         <v>1000400</v>
       </c>
@@ -9453,7 +9885,9 @@
       <c r="A237" s="3">
         <v>10045</v>
       </c>
-      <c r="B237" s="9"/>
+      <c r="B237" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C237" s="2">
         <v>1000401</v>
       </c>
@@ -9471,7 +9905,9 @@
       <c r="A238" s="3">
         <v>10045</v>
       </c>
-      <c r="B238" s="9"/>
+      <c r="B238" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C238" s="2">
         <v>1000402</v>
       </c>
@@ -9489,7 +9925,9 @@
       <c r="A239" s="3">
         <v>10045</v>
       </c>
-      <c r="B239" s="9"/>
+      <c r="B239" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C239" s="2">
         <v>1000403</v>
       </c>
@@ -9507,7 +9945,9 @@
       <c r="A240" s="3">
         <v>10045</v>
       </c>
-      <c r="B240" s="9"/>
+      <c r="B240" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C240" s="2">
         <v>1000404</v>
       </c>
@@ -9525,7 +9965,9 @@
       <c r="A241" s="3">
         <v>10045</v>
       </c>
-      <c r="B241" s="9"/>
+      <c r="B241" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C241" s="2">
         <v>1000405</v>
       </c>
@@ -9543,7 +9985,9 @@
       <c r="A242" s="3">
         <v>10045</v>
       </c>
-      <c r="B242" s="9"/>
+      <c r="B242" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C242" s="2">
         <v>1000406</v>
       </c>
@@ -9561,7 +10005,9 @@
       <c r="A243" s="3">
         <v>10045</v>
       </c>
-      <c r="B243" s="9"/>
+      <c r="B243" s="3" t="s">
+        <v>231</v>
+      </c>
       <c r="C243" s="2">
         <v>1000426</v>
       </c>
@@ -9582,29 +10028,6 @@
       <c r="E245" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B28"/>
-    <mergeCell ref="B56:B67"/>
-    <mergeCell ref="B68:B80"/>
-    <mergeCell ref="B29:B45"/>
-    <mergeCell ref="B46:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B113:B123"/>
-    <mergeCell ref="B124:B132"/>
-    <mergeCell ref="B133:B158"/>
-    <mergeCell ref="B81:B91"/>
-    <mergeCell ref="B92:B105"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="B222:B243"/>
-    <mergeCell ref="B181:B197"/>
-    <mergeCell ref="B198:B203"/>
-    <mergeCell ref="B204:B221"/>
-    <mergeCell ref="B159:B163"/>
-    <mergeCell ref="B164:B172"/>
-    <mergeCell ref="B173:B180"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
